--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3A9422EA-D275-4626-854E-AFA48F80ECC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1B44F85A-1D02-4024-BE9E-31AEBB1DFBA9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="4005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
     <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -61,79 +62,75 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Ahmed Abuzaid</t>
-  </si>
-  <si>
     <t>v1.0</t>
   </si>
   <si>
     <t>intial version</t>
   </si>
   <si>
-    <t>LH_REVIEW_SRS_LOGIN_001</t>
+    <t>SRS ID</t>
   </si>
   <si>
     <t>SRS-LOGIN-001</t>
   </si>
   <si>
-    <t>SRS_ID</t>
+    <t>LH-REVIEW-SRS-001</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-002</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-003</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-004</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-005</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-006</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-007</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-008</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-009</t>
+  </si>
+  <si>
+    <t>Hala Eldaly</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the requirement is vague regarding the type of identifier allowed in the login form. Please clarify whether the system accepts only email address or both email and username for login. Additionally, specify any validation rules for the email field (e.g., format, required field). This helps ensureproper implementation and avoids ambiguity during development and testing.  </t>
+  </si>
+  <si>
+    <t>Ahmed Abozaid</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>SRS-LOGIN-002</t>
   </si>
   <si>
-    <t>SRS-LOGIN-003</t>
-  </si>
-  <si>
-    <t>SRS-LOGIN-004</t>
-  </si>
-  <si>
-    <t>Hala Eldaly</t>
-  </si>
-  <si>
-    <t>The requirement is vague regarding the type of identifier allowed in the login 
-form. Please clarify whether the system accepts only email addresses or both 
-email and usernames for login. Additionally, specify any validation rules for 
-the email field (e.g., format, required field). This helps ensure proper implementation and avoids ambiguity during development and testing.</t>
-  </si>
-  <si>
-    <t>No comments</t>
-  </si>
-  <si>
-    <t>Consider clarifying whether user feedback on failed logins
-(e.g., email vs. password issue) is intentionally generic for security reason</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>Ensure that you update the login form to
- handle both email and username options 
-if applicable, and implement proper email 
-validation (e.g., format, required field) to
- prevent issues during login and testing.</t>
-  </si>
-  <si>
-    <t>Please confirm whether the user feedback 
-for failed logins should remain generic
- (e.g., 'Invalid credentials') for security
- reasons, or if more specific messages
- (e.g., 'Incorrect email' or 'Incorrect password') 
-are acceptable.</t>
-  </si>
-  <si>
-    <t>v1.1</t>
+    <t>Please confirm whether the user feedback for failed logins should remain generic (e.g., 'Invalid credentials') for security reasons, or if more specific messages (e.g., 'Incorrect email' or 'Incorrect password') are acceptable.</t>
+  </si>
+  <si>
+    <t>Ensure that you update the login form to handle both email and username options if applicable, and implement proper email validation (e.g., format, required field) to prevent issues during login and testing.</t>
+  </si>
+  <si>
+    <t>Consider clarifying whether user feedback on failed logins (e.g., email vs. password issue) is intentionally generic for security reason</t>
   </si>
   <si>
     <t>SRS-ID-001</t>
   </si>
   <si>
-    <t>LH_REVIEW_SRS_ID CONSTRAINS_001</t>
-  </si>
-  <si>
     <t>The SRS requirement does not explicitly mention that the User ID must be unique, as stated in the CRS.</t>
   </si>
   <si>
@@ -141,13 +138,82 @@
   </si>
   <si>
     <t>Added review comments under ID_CONSTRAINTS_REVIEWS, updated the version, and renamed the file to align with the naming convention defined in the project plan.</t>
+  </si>
+  <si>
+    <t>SRS-PUB-001</t>
+  </si>
+  <si>
+    <t>Gehad Ashry</t>
+  </si>
+  <si>
+    <t>v 1.1</t>
+  </si>
+  <si>
+    <t>The SRS does not mention what happens after clicking each button.</t>
+  </si>
+  <si>
+    <t>Try to clarify that each button will direct the user to a related interface. Recommendation: add "each leading to the respective submission interface"</t>
+  </si>
+  <si>
+    <t>SRS-PUB-002</t>
+  </si>
+  <si>
+    <t>Try to make the requirement a bit clearer so it’s easier to understand for everyone, especially those who are not deeply technical.</t>
+  </si>
+  <si>
+    <t>Recommendation: The system shall validate video file size before upload and reject files exceeding 100MB, with the message: "Max size: 100MB."</t>
+  </si>
+  <si>
+    <t>SRS-PUB-003</t>
+  </si>
+  <si>
+    <t>The same as the above</t>
+  </si>
+  <si>
+    <t>Recommendation:The system shall validate audio file size before upload and reject files exceeding 20MB, with the message: "Max size: 20MB."</t>
+  </si>
+  <si>
+    <t>SRS-PUB-004</t>
+  </si>
+  <si>
+    <t>What does the word 'dynamically' refer to? Runtime or on submission? Needs to be clearer</t>
+  </si>
+  <si>
+    <t>Recommendation: The system shall count words in articles in real-time and prevent submission if the article exceeds 1000 words.</t>
+  </si>
+  <si>
+    <t>SRS-PUB-005</t>
+  </si>
+  <si>
+    <t>Consider replacing “.MP4” with “MP4 format” to improve readability and make it clearer.</t>
+  </si>
+  <si>
+    <t>Recommendation: The system shall allow only .mp4 video files to be uploaded. If an unsupported format (e.g., .avi) is selected, display: "Only MP4 format is allowed."</t>
+  </si>
+  <si>
+    <t>SRS-PUB-006</t>
+  </si>
+  <si>
+    <t>The same as the above ".MP3" with "MP3 format".</t>
+  </si>
+  <si>
+    <t>Recommendation: The system shall allow only .mp3 audio files to be uploaded. If another format (e.g., .wav) is selected, display the message: "Only MP3 format is allowed."</t>
+  </si>
+  <si>
+    <t>Reviewed Publish and upload feature</t>
+  </si>
+  <si>
+    <t>14-Ape-25</t>
+  </si>
+  <si>
+    <t>v1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,21 +257,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,12 +297,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8F9"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -267,6 +338,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -306,68 +403,55 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -383,73 +467,93 @@
     <xf numFmtId="15" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -727,266 +831,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="86.5703125" customWidth="1"/>
-    <col min="7" max="7" width="56" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="94.85546875" customWidth="1"/>
+    <col min="7" max="7" width="76.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="23" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A2" s="5">
+        <f>DATE(2025,4,13)</f>
+        <v>45760</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45">
+      <c r="A3" s="28">
+        <f>DATE(2025,4,13)</f>
+        <v>45760</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="131.25">
-      <c r="A2" s="27">
-        <v>45760</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="C3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
+        <v>45761</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30">
+      <c r="A5" s="6">
+        <f t="shared" si="0"/>
+        <v>45761</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" ht="30">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>45761</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:11" ht="30">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>45761</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="C7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>45761</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="28"/>
-      <c r="B3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="14" t="s">
+      <c r="C8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>45761</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" ht="112.5">
-      <c r="A4" s="28"/>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="15" t="s">
+      <c r="C9" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>45761</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="C10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="29"/>
-      <c r="B5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" ht="75">
-      <c r="A6" s="24">
-        <v>45761</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" s="17"/>
+      <c r="I10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="E2:E6"/>
-  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"open,closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"open,in progress,closed,not applicable"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="D2" s="38">
         <v>45760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="112.5">
-      <c r="A3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="13">
+    <row r="3" spans="1:4" ht="75">
+      <c r="A3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="41">
         <v>45761</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3A9422EA-D275-4626-854E-AFA48F80ECC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1B44F85A-1D02-4024-BE9E-31AEBB1DFBA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCB2FDD-D1AD-4AD6-9163-F0F0C746AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
@@ -16,12 +16,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -203,17 +214,91 @@
     <t>Reviewed Publish and upload feature</t>
   </si>
   <si>
-    <t>14-Ape-25</t>
-  </si>
-  <si>
     <t>v1.2</t>
+  </si>
+  <si>
+    <t>v1.3</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdelmageed</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-010</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-011</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-012</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-013</t>
+  </si>
+  <si>
+    <t>SRS-REG-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The message is very big to be shown inside the password field box(inline) </t>
+  </si>
+  <si>
+    <t>Recommendation: The message should be shown in a bigger area like next to the password field or in a popup</t>
+  </si>
+  <si>
+    <t>SRS-REG-005</t>
+  </si>
+  <si>
+    <t>Recommendation: The description should be :The system shall ensure that the username is unique. If a duplicate username is detected, an error message shall be displayed, saying : This username is already used</t>
+  </si>
+  <si>
+    <t>the description has some language mistakes that should be corrected for better understanding of the requirement</t>
+  </si>
+  <si>
+    <t>SRS-REG-006</t>
+  </si>
+  <si>
+    <t>Recommendation: The description should be :The system shall validate email to be unique and if not an error message should appear saying : This E-mail is already used</t>
+  </si>
+  <si>
+    <t>SRS-SYS-001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The CRS did not state that the PC and Web application should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> feature sets</t>
+    </r>
+  </si>
+  <si>
+    <t>Recommendation: Rephrase the description to avoid implying that the PC and web applications must have identical feature sets, as differences between platforms make this challenging to implement</t>
+  </si>
+  <si>
+    <t>Reviewed Registration and System Constrains</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +348,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +419,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -342,19 +454,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -422,36 +521,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,55 +560,55 @@
     <xf numFmtId="15" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyAlignment="1">
@@ -539,18 +632,27 @@
     <xf numFmtId="15" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -832,387 +934,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="94.85546875" customWidth="1"/>
-    <col min="7" max="7" width="76.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="77.77734375" customWidth="1"/>
+    <col min="7" max="7" width="76.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="23" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A2" s="5">
+    <row r="2" spans="1:11" s="19" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="45">
-      <c r="A3" s="28">
+      <c r="I2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
+      <c r="I3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:B19" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30">
-      <c r="A5" s="6">
+      <c r="I4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="1:11" ht="30">
-      <c r="A6" s="5">
+      <c r="I5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="6">
+      <c r="I6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="5">
+      <c r="I7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A9" s="6">
+      <c r="I8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45">
-      <c r="A10" s="5">
+      <c r="I9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f>DATE(2025,4,17)</f>
+        <v>45764</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <f t="shared" ref="A12:A21" si="1">DATE(2025,4,17)</f>
+        <v>45764</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>45764</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
+        <f t="shared" si="1"/>
+        <v>45764</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"open,closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"open,in progress,closed,not applicable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1222,77 +1594,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="34">
         <v>45760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:4" ht="74.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="37">
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>60</v>
+      <c r="B5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="13">
+        <v>45764</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCB2FDD-D1AD-4AD6-9163-F0F0C746AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596EDCC-C36D-4DCB-9327-65BAE5385B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -293,12 +291,76 @@
   <si>
     <t>Reviewed Registration and System Constrains</t>
   </si>
+  <si>
+    <t>LH-REVIEW-SRS-014</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar Sherif </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spelling Error </t>
+  </si>
+  <si>
+    <t>Header Consistency</t>
+  </si>
+  <si>
+    <t>The header "ADMIN Constrain" should be updated to "ADMIN Constraints" for grammatical correctness.</t>
+  </si>
+  <si>
+    <t>Inconsistent Naming Convention</t>
+  </si>
+  <si>
+    <t>SRS-ADM-001</t>
+  </si>
+  <si>
+    <t>SRS-ADM-002</t>
+  </si>
+  <si>
+    <t>The word "admains". It should be corrected to "admins" in both constraints.</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-016</t>
+  </si>
+  <si>
+    <t>v1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed Admin Constraints </t>
+  </si>
+  <si>
+    <r>
+      <t>In the first column, the ID uses "CONSTRAINS" instead of "CONSTRAIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">S". It should be fixed to maintain naming consistency </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +427,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,13 +607,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -561,18 +623,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -584,9 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,13 +641,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -632,9 +673,6 @@
     <xf numFmtId="15" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,15 +682,102 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -936,152 +1061,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="77.77734375" customWidth="1"/>
-    <col min="7" max="7" width="76.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="77.77734375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="76.33203125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="41" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" style="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+      <c r="A3" s="16">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:B19" si="0">DATE(2025,4,14)</f>
+        <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1090,99 +1215,99 @@
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="39"/>
+      <c r="I5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="39"/>
+      <c r="I6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1191,31 +1316,31 @@
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="21" t="s">
+      <c r="I8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1224,31 +1349,31 @@
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="30" t="s">
+      <c r="I9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1257,31 +1382,31 @@
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="21" t="s">
+      <c r="I10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1290,64 +1415,64 @@
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="30" t="s">
+      <c r="I11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
-        <f t="shared" ref="A12:A21" si="1">DATE(2025,4,17)</f>
+      <c r="A12" s="30">
+        <f t="shared" ref="A12:A16" si="1">DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1356,227 +1481,291 @@
         <f t="shared" si="1"/>
         <v>45764</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="30" t="s">
+      <c r="I13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="30">
         <f t="shared" si="1"/>
         <v>45764</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="I14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36">
+        <f>DATE(2025,4,18)</f>
+        <v>45765</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="62" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="37">
+        <f>A17</f>
+        <v>45765</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
+        <f>DATE(2025,4,18)</f>
+        <v>45765</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1594,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1609,73 +1798,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="24">
         <v>45760</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="74.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="27">
         <v>45761</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>45761</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>45764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45765</v>
       </c>
     </row>
   </sheetData>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596EDCC-C36D-4DCB-9327-65BAE5385B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
     <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -292,43 +282,43 @@
     <t>Reviewed Registration and System Constrains</t>
   </si>
   <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>LH-REVIEW-SRS-014</t>
   </si>
   <si>
+    <t>SRS-ADM-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar Sherif </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spelling Error </t>
+  </si>
+  <si>
+    <t>The word "admains". It should be corrected to "admins" in both constraints.</t>
+  </si>
+  <si>
     <t>LH-REVIEW-SRS-015</t>
   </si>
   <si>
-    <t xml:space="preserve">Omar Sherif </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spelling Error </t>
-  </si>
-  <si>
     <t>Header Consistency</t>
   </si>
   <si>
     <t>The header "ADMIN Constrain" should be updated to "ADMIN Constraints" for grammatical correctness.</t>
   </si>
   <si>
+    <t>LH-REVIEW-SRS-016</t>
+  </si>
+  <si>
+    <t>SRS-ADM-002</t>
+  </si>
+  <si>
     <t>Inconsistent Naming Convention</t>
-  </si>
-  <si>
-    <t>SRS-ADM-001</t>
-  </si>
-  <si>
-    <t>SRS-ADM-002</t>
-  </si>
-  <si>
-    <t>The word "admains". It should be corrected to "admins" in both constraints.</t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-016</t>
-  </si>
-  <si>
-    <t>v1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewed Admin Constraints </t>
   </si>
   <si>
     <r>
@@ -355,12 +345,18 @@
       <t xml:space="preserve">S". It should be fixed to maintain naming consistency </t>
     </r>
   </si>
+  <si>
+    <t>v1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed Admin Constraints </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +603,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,6 +626,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -634,6 +649,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,7 +659,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -652,9 +676,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -673,6 +694,9 @@
     <xf numFmtId="15" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,15 +706,23 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,63 +738,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,8 +759,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1058,722 +1048,719 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="41" customWidth="1"/>
-    <col min="6" max="6" width="77.77734375" style="53" customWidth="1"/>
-    <col min="7" max="7" width="76.33203125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="41" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="77.7109375" customWidth="1"/>
+    <col min="7" max="7" width="76.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="19" customFormat="1" ht="75">
       <c r="A2" s="4">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+    </row>
+    <row r="3" spans="1:11" ht="45">
+      <c r="A3" s="24">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" ht="35.25" customHeight="1">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" ht="45">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="5">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="20" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="45">
+      <c r="A12" s="40">
+        <f t="shared" ref="A12:A14" si="1">DATE(2025,4,17)</f>
+        <v>45764</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
-        <f t="shared" ref="A12:A16" si="1">DATE(2025,4,17)</f>
-        <v>45764</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="45">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>45764</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+    </row>
+    <row r="14" spans="1:11" ht="45">
+      <c r="A14" s="40">
         <f t="shared" si="1"/>
         <v>45764</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="14" t="s">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="50">
+        <v>45765</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
-        <f>DATE(2025,4,18)</f>
+    <row r="16" spans="1:11" ht="30">
+      <c r="A16" s="51">
         <v>45765</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B16" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="35" t="s">
+      <c r="C16" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="32" t="s">
+      <c r="F16" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H16" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="58" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="30">
+      <c r="A17" s="52">
+        <v>45765</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="62" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="37">
-        <f>A17</f>
-        <v>45765</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
-        <f>DATE(2025,4,18)</f>
-        <v>45765</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="5"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="5"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15">
       <formula1>"open,closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15">
       <formula1>"open,in progress,closed,not applicable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1782,102 +1769,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="20.25">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="33">
         <v>45760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="74.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:4" ht="75">
+      <c r="A3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="36">
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="13">
         <v>45761</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="37.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" ht="37.5">
+      <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
         <v>45764</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="10">
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="62">
         <v>45765</v>
       </c>
     </row>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t xml:space="preserve">Reviewed Admin Constraints </t>
+  </si>
+  <si>
+    <t>v1.5</t>
+  </si>
+  <si>
+    <t>Close reviewer verification for Login &amp; ID_Constraints</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,7 +1137,7 @@
         <v>79</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45">
@@ -1164,7 +1170,7 @@
         <v>80</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30">
@@ -1197,7 +1203,7 @@
         <v>80</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30">
@@ -1770,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1868,6 +1874,20 @@
         <v>45765</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="33">
+        <v>45765</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
@@ -355,7 +355,7 @@
     <t>v1.5</t>
   </si>
   <si>
-    <t>Close reviewer verification for Login &amp; ID_Constraints</t>
+    <t>Close reviewer verification for Login and ID_Constraints</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7EFE6-0AC2-4A36-8D34-9342C644AD68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
     <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -357,11 +358,17 @@
   <si>
     <t>Close reviewer verification for Login and ID_Constraints</t>
   </si>
+  <si>
+    <t>v1.6</t>
+  </si>
+  <si>
+    <t>Close reviewer verification for Publish and upload feature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1054,11 +1061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1236,7 +1243,7 @@
         <v>80</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K5" s="38"/>
     </row>
@@ -1270,7 +1277,7 @@
         <v>80</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K6" s="38"/>
     </row>
@@ -1304,7 +1311,7 @@
         <v>80</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
@@ -1337,7 +1344,7 @@
         <v>80</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35.25" customHeight="1">
@@ -1370,7 +1377,7 @@
         <v>80</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45">
@@ -1403,7 +1410,7 @@
         <v>80</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30">
@@ -1763,10 +1770,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"open,closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"open,in progress,closed,not applicable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1775,11 +1782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1888,6 +1895,20 @@
         <v>45765</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="A8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="33">
+        <v>45765</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7EFE6-0AC2-4A36-8D34-9342C644AD68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C263751-31AE-4688-B94C-2DFD97C57970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
@@ -15,6 +15,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,56 +741,41 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,25 +1060,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="77.7109375" customWidth="1"/>
-    <col min="7" max="7" width="76.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="77.6640625" customWidth="1"/>
+    <col min="7" max="7" width="76.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="75">
+    <row r="2" spans="1:11" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1147,7 +1143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1180,7 +1176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
@@ -1213,7 +1209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1247,7 +1243,7 @@
       </c>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1281,7 +1277,7 @@
       </c>
       <c r="K6" s="38"/>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1314,7 +1310,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30">
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1347,7 +1343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="35.25" customHeight="1">
+    <row r="9" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1380,7 +1376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1413,7 +1409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
@@ -1446,7 +1442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f t="shared" ref="A12:A14" si="1">DATE(2025,4,17)</f>
         <v>45764</v>
@@ -1476,10 +1472,10 @@
         <v>80</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -1509,10 +1505,10 @@
         <v>80</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -1542,10 +1538,10 @@
         <v>80</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="50">
         <v>45765</v>
       </c>
@@ -1561,7 +1557,7 @@
       <c r="E15" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="52" t="s">
         <v>84</v>
       </c>
       <c r="G15" s="47" t="s">
@@ -1570,47 +1566,47 @@
       <c r="H15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="56" t="s">
+      <c r="I15" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30">
-      <c r="A16" s="51">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="40">
         <v>45765</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="57" t="s">
+      <c r="I16" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
-      <c r="A17" s="52">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>45765</v>
       </c>
       <c r="B17" s="49" t="s">
@@ -1641,7 +1637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -1652,7 +1648,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -1664,7 +1660,7 @@
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -1675,7 +1671,7 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -1687,7 +1683,7 @@
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -1697,7 +1693,7 @@
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -1707,7 +1703,7 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -1717,7 +1713,7 @@
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -1727,7 +1723,7 @@
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -1737,7 +1733,7 @@
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -1747,7 +1743,7 @@
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -1757,7 +1753,7 @@
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -1789,15 +1785,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -1811,7 +1807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1821,7 @@
         <v>45760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75">
+    <row r="3" spans="1:4" ht="74.400000000000006" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>27</v>
       </c>
@@ -1839,7 +1835,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
+    <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>60</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="37.5">
+    <row r="5" spans="1:4" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
@@ -1867,21 +1863,21 @@
         <v>45764</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="13">
         <v>45765</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
+    <row r="7" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>95</v>
       </c>
@@ -1895,7 +1891,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
+    <row r="8" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>97</v>
       </c>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C263751-31AE-4688-B94C-2DFD97C57970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FCA186-451B-4F48-B02B-1C4C4510682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>Close reviewer verification for Publish and upload feature</t>
+  </si>
+  <si>
+    <t>v1.7</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Registration and System Constrains</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1779,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,6 +1911,20 @@
         <v>45765</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="33">
+        <v>45766</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FCA186-451B-4F48-B02B-1C4C4510682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7440303A-5DC6-45B0-90EA-B7C092A3EFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
@@ -23,8 +23,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -380,6 +378,12 @@
   </si>
   <si>
     <t>Changed reviewer verification for Registration and System Constrains</t>
+  </si>
+  <si>
+    <t>v1.8</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Admin Constrains</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1580,7 @@
         <v>80</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1608,7 +1612,7 @@
         <v>80</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1640,7 +1644,7 @@
         <v>80</v>
       </c>
       <c r="J17" s="49" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1785,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1925,6 +1929,20 @@
         <v>45766</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="33">
+        <v>45766</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7440303A-5DC6-45B0-90EA-B7C092A3EFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E39E430-C199-4795-B479-BC29842C97A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -384,6 +384,39 @@
   </si>
   <si>
     <t>Changed reviewer verification for Admin Constrains</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-017</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-018</t>
+  </si>
+  <si>
+    <t>SRS-NAV-001</t>
+  </si>
+  <si>
+    <t>SRS-NAV-002</t>
+  </si>
+  <si>
+    <t>v 1.2</t>
+  </si>
+  <si>
+    <t>Explicitly list the 4 categories in the SRS</t>
+  </si>
+  <si>
+    <t>The SRS does not define the 4 predefined content categories (e.g., names like ‘Home’, ‘Products’).</t>
+  </si>
+  <si>
+    <t>The SRS lacks testable criteria for dropdown interactions (e.g., hover vs. click)</t>
+  </si>
+  <si>
+    <t>Add acceptance criteria: Dropdowns must open on hover or Click (on desktop)</t>
+  </si>
+  <si>
+    <t>v1.9</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Navigation</t>
   </si>
 </sst>
 </file>
@@ -620,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,6 +820,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1070,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:J24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,28 +1690,69 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+    <row r="18" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58">
+        <v>45765</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="A19" s="5">
+        <v>45765</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
@@ -1789,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1943,6 +2027,20 @@
         <v>45766</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="33">
+        <v>45767</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E39E430-C199-4795-B479-BC29842C97A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68020C2-A822-4021-BD4E-89DD23CFF524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -417,6 +417,30 @@
   </si>
   <si>
     <t>Changed reviewer verification for Navigation</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+  </si>
+  <si>
+    <t>Reviewed publish video</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-019</t>
+  </si>
+  <si>
+    <t>SRS-PUBART</t>
+  </si>
+  <si>
+    <t>v2.3</t>
+  </si>
+  <si>
+    <t>No review Comments</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Gehad ashry</t>
   </si>
 </sst>
 </file>
@@ -653,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -830,6 +854,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1113,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,15 +1782,36 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="A20" s="62">
+        <v>45785</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
@@ -1873,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2041,6 +2089,20 @@
         <v>45767</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="33">
+        <v>45785</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omars\Documents\GitHub\Group-3-Learning-hub\LH_REVIEWS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB72F5-6CCB-4C27-A23D-3866F0FEFE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
@@ -19,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="146">
   <si>
     <t>date</t>
   </si>
@@ -239,7 +243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">The CRS did not state that the PC and Web application should have </t>
@@ -250,7 +254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>identical</t>
@@ -260,7 +264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> feature sets</t>
@@ -308,7 +312,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>In the first column, the ID uses "CONSTRAINS" instead of "CONSTRAIN</t>
@@ -318,7 +322,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -328,7 +332,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">S". It should be fixed to maintain naming consistency </t>
@@ -499,18 +503,42 @@
   <si>
     <t>Reviewed publish Audio</t>
   </si>
+  <si>
+    <t>LH-REVIEW-SRS-023</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-024</t>
+  </si>
+  <si>
+    <t>CRS IDs use LH-CRS-PUBLISHVIDEO-XXX, but SRS IDs use LH-SRS-PUBVID-XXX.</t>
+  </si>
+  <si>
+    <t>Align SRS IDs with CRS format (e.g., LH-SRS-PUBLISHVIDEO-XXX).</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
+  </si>
+  <si>
+    <t>SRS-PUBLISHVIDEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed publish Video &amp; Admin Home </t>
+  </si>
+  <si>
+    <t>SRS-ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use namig by the name of the feature ADMIN Constrains </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naming like LH-SRS-DELETEPOST what is deletpost </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,31 +547,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Roboto"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,122 +592,21 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,61 +614,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,7 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,204 +670,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1054,286 +777,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1343,16 +827,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1385,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1401,10 +885,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1412,7 +896,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,16 +926,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,62 +962,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1791,33 +1235,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.4380952380952" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.552380952381" customWidth="1"/>
-    <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="22.8857142857143" customWidth="1"/>
-    <col min="5" max="5" width="11.8857142857143" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="85" customWidth="1"/>
-    <col min="7" max="7" width="76.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="19.1047619047619" customWidth="1"/>
-    <col min="9" max="9" width="21.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="30.8857142857143" customWidth="1"/>
+    <col min="7" max="7" width="76.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="18.75" spans="1:10">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="18">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="75" spans="1:10">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="57.6">
       <c r="A2" s="18">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1882,7 +1326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="1:10">
+    <row r="3" spans="1:11" ht="43.2">
       <c r="A3" s="22">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1915,7 +1359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:10">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
@@ -1948,7 +1392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:11">
+    <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1982,7 +1426,7 @@
       </c>
       <c r="K5" s="59"/>
     </row>
-    <row r="6" ht="30" spans="1:11">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2016,7 +1460,7 @@
       </c>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" ht="30" spans="1:10">
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2049,7 +1493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:10">
+    <row r="8" spans="1:11" ht="28.8">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2082,7 +1526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="35.25" customHeight="1" spans="1:10">
+    <row r="9" spans="1:11" ht="35.25" customHeight="1">
       <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2115,7 +1559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="45" spans="1:10">
+    <row r="10" spans="1:11" ht="28.8">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2148,7 +1592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:10">
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" s="30">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
@@ -2181,7 +1625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="45" spans="1:10">
+    <row r="12" spans="1:11" ht="43.2">
       <c r="A12" s="36">
         <f t="shared" ref="A12:A14" si="1">DATE(2025,4,17)</f>
         <v>45764</v>
@@ -2214,7 +1658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="1:10">
+    <row r="13" spans="1:11" ht="28.8">
       <c r="A13" s="30">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -2247,7 +1691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="45" spans="1:10">
+    <row r="14" spans="1:11" ht="43.2">
       <c r="A14" s="36">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -2280,7 +1724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="41">
         <v>45765</v>
       </c>
@@ -2312,7 +1756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="1:10">
+    <row r="16" spans="1:11" ht="28.8">
       <c r="A16" s="36">
         <v>45765</v>
       </c>
@@ -2344,7 +1788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="1:10">
+    <row r="17" spans="1:10" ht="28.8">
       <c r="A17" s="30">
         <v>45765</v>
       </c>
@@ -2376,7 +1820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" s="14" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="14" customFormat="1">
       <c r="A18" s="51">
         <v>45765</v>
       </c>
@@ -2504,7 +1948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="75" spans="1:10">
+    <row r="22" spans="1:10" ht="72">
       <c r="A22" s="53">
         <v>45786</v>
       </c>
@@ -2558,7 +2002,7 @@
       <c r="G23" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="63" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="25" t="s">
@@ -2568,27 +2012,73 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-    </row>
-    <row r="26" spans="3:10">
+    <row r="24" spans="1:10">
+      <c r="A24" s="53">
+        <v>45786</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="53">
+        <v>45786</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="53"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -2598,7 +2088,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="1:10">
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2608,7 +2098,7 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="1:10">
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -2618,7 +2108,7 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="1:10">
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -2629,37 +2119,36 @@
       <c r="J29" s="25"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"open,in progress,closed,not applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"open,closed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.1047619047619" customWidth="1"/>
-    <col min="2" max="2" width="33.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="78.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="23.8857142857143" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -2673,7 +2162,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:4">
+    <row r="2" spans="1:4" ht="18.600000000000001">
       <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
@@ -2687,7 +2176,7 @@
         <v>45760</v>
       </c>
     </row>
-    <row r="3" ht="75" spans="1:4">
+    <row r="3" spans="1:4" ht="74.400000000000006">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2701,7 +2190,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:4">
+    <row r="4" spans="1:4" ht="18.600000000000001">
       <c r="A4" s="9" t="s">
         <v>114</v>
       </c>
@@ -2715,7 +2204,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="5" ht="37.5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.600000000000001">
       <c r="A5" s="9" t="s">
         <v>116</v>
       </c>
@@ -2729,7 +2218,7 @@
         <v>45764</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:4">
+    <row r="6" spans="1:4" ht="18.600000000000001">
       <c r="A6" s="9" t="s">
         <v>118</v>
       </c>
@@ -2743,7 +2232,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:4">
+    <row r="7" spans="1:4" ht="18.600000000000001">
       <c r="A7" s="3" t="s">
         <v>120</v>
       </c>
@@ -2757,7 +2246,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:4">
+    <row r="8" spans="1:4" ht="18.600000000000001">
       <c r="A8" s="3" t="s">
         <v>122</v>
       </c>
@@ -2771,7 +2260,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="9" ht="37.5" spans="1:4">
+    <row r="9" spans="1:4" ht="37.200000000000003">
       <c r="A9" s="3" t="s">
         <v>124</v>
       </c>
@@ -2785,7 +2274,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="1:4">
+    <row r="10" spans="1:4" ht="18.600000000000001">
       <c r="A10" s="3" t="s">
         <v>126</v>
       </c>
@@ -2799,7 +2288,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="1:4">
+    <row r="11" spans="1:4" ht="18.600000000000001">
       <c r="A11" s="3" t="s">
         <v>128</v>
       </c>
@@ -2813,7 +2302,7 @@
         <v>45767</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="1:4">
+    <row r="12" spans="1:4" ht="18.600000000000001">
       <c r="A12" s="3" t="s">
         <v>130</v>
       </c>
@@ -2827,7 +2316,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="1:4">
+    <row r="13" spans="1:4" ht="18.600000000000001">
       <c r="A13" s="3" t="s">
         <v>132</v>
       </c>
@@ -2841,7 +2330,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="1:4">
+    <row r="14" spans="1:4" ht="18.600000000000001">
       <c r="A14" s="3" t="s">
         <v>134</v>
       </c>
@@ -2855,8 +2344,22 @@
         <v>45786</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="18.600000000000001">
+      <c r="A15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45786</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omars\Documents\GitHub\Group-3-Learning-hub\LH_REVIEWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testing\iti\6_QA\workshop\new_repo\Group-3-Learning-hub-dev\LH_REVIEWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB72F5-6CCB-4C27-A23D-3866F0FEFE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
     <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="159">
   <si>
     <t>date</t>
   </si>
@@ -402,9 +401,6 @@
 but the record must stop automatically..</t>
   </si>
   <si>
-    <t>my recommendation is to eliminate the LH-SRS-PUBLISHAUDIO-007, or remove the part that mention the automatic stop of the recording to solve this conflict.</t>
-  </si>
-  <si>
     <t>LH-REVIEW-SRS-022</t>
   </si>
   <si>
@@ -532,12 +528,55 @@
   </si>
   <si>
     <t xml:space="preserve">Naming like LH-SRS-DELETEPOST what is deletpost </t>
+  </si>
+  <si>
+    <t>my recommendation is to eliminate the LH-SRS-PUBLISHAUDIO-007, or remove
+ the part that mention the automatic stop of the recording to solve this conflict.</t>
+  </si>
+  <si>
+    <t>v2.4</t>
+  </si>
+  <si>
+    <t>Ahme Abuzaid</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-025</t>
+  </si>
+  <si>
+    <t>SRS-REGISTRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make all the error messages as generic message  </t>
+  </si>
+  <si>
+    <t>you make a different error message for each error</t>
+  </si>
+  <si>
+    <t>Omar sherif</t>
+  </si>
+  <si>
+    <t>LH-SRS-REG-001</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-026</t>
+  </si>
+  <si>
+    <t>this srs is vague</t>
+  </si>
+  <si>
+    <t>so it can be more specific and mention the component of the registration form like "the registration form consist of user name field,email field,password field and register button"</t>
+  </si>
+  <si>
+    <t>Ahmed Abuzaid</t>
+  </si>
+  <si>
+    <t>Reviewed Registration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -782,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -962,8 +1001,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1240,28 +1288,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="85" customWidth="1"/>
-    <col min="7" max="7" width="76.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="76.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="18">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="57.6">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="75">
       <c r="A2" s="18">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1326,7 +1374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2">
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="22">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1359,7 +1407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
@@ -1392,7 +1440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8">
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1426,7 +1474,7 @@
       </c>
       <c r="K5" s="59"/>
     </row>
-    <row r="6" spans="1:11" ht="28.8">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1460,7 +1508,7 @@
       </c>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1493,7 +1541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8">
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1559,7 +1607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8">
+    <row r="10" spans="1:11" ht="45">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1592,7 +1640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8">
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="30">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
@@ -1625,7 +1673,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.2">
+    <row r="12" spans="1:11" ht="45">
       <c r="A12" s="36">
         <f t="shared" ref="A12:A14" si="1">DATE(2025,4,17)</f>
         <v>45764</v>
@@ -1658,7 +1706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8">
+    <row r="13" spans="1:11" ht="45">
       <c r="A13" s="30">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -1691,7 +1739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.2">
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="36">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -1756,7 +1804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8">
+    <row r="16" spans="1:11" ht="30">
       <c r="A16" s="36">
         <v>45765</v>
       </c>
@@ -1788,7 +1836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8">
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="30">
         <v>45765</v>
       </c>
@@ -1948,183 +1996,229 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="72">
-      <c r="A22" s="53">
+    <row r="22" spans="1:10" ht="75">
+      <c r="A22" s="63">
         <v>45786</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="63">
+        <v>45786</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="C23" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I23" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="25" t="s">
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="63">
+        <v>45786</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="53">
+      <c r="J24" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="63">
         <v>45786</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="B25" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="63" t="s">
+      <c r="F25" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I25" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J25" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="53">
+    <row r="26" spans="1:10">
+      <c r="A26" s="63">
         <v>45786</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="25" t="s">
+      <c r="B26" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J26" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="53">
+    <row r="27" spans="1:10" ht="45">
+      <c r="A27" s="63">
         <v>45786</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="25" t="s">
+      <c r="B27" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J27" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="53"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-    </row>
     <row r="28" spans="1:10">
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15">
       <formula1>"open,in progress,closed,not applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15">
       <formula1>"open,closed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2133,50 +2227,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.600000000000001">
-      <c r="A2" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5">
         <v>45760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="74.400000000000006">
+    <row r="3" spans="1:4" ht="75">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2184,167 +2278,167 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="8">
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="11">
         <v>45761</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.600000000000001">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="11">
         <v>45764</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="11">
         <v>45765</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001">
+    <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="5">
         <v>45765</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001">
+    <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="5">
         <v>45765</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="37.200000000000003">
+    <row r="9" spans="1:4" ht="37.5">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="5">
         <v>45766</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.600000000000001">
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="5">
         <v>45766</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.600000000000001">
+    <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="5">
         <v>45767</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.600000000000001">
+    <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="5">
         <v>45785</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.600000000000001">
+    <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.600000000000001">
+    <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.600000000000001">
+    <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -2352,9 +2446,23 @@
         <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="5">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="5">
         <v>45786</v>
       </c>
     </row>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testing\iti\6_QA\workshop\new_repo\Group-3-Learning-hub-dev\LH_REVIEWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\hhh\Group-3-Learning-hub-dev\LH_REVIEWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="180">
   <si>
     <t>date</t>
   </si>
@@ -572,12 +572,80 @@
   <si>
     <t>Reviewed Registration</t>
   </si>
+  <si>
+    <t>Reviewed CATEGORIES &amp; LOGIN features</t>
+  </si>
+  <si>
+    <t>v2.5</t>
+  </si>
+  <si>
+    <t>LH-SRS-CATEGORIES-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clearly state the exact location where notifications will appear (e.g., Home Page banner, notification panel, or popup).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SRS does not specify where the notifications will be shown in the UI. </t>
+  </si>
+  <si>
+    <t>Omar Shreif</t>
+  </si>
+  <si>
+    <t>LH-SRS-CATEGORIES-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify the exact redirection behavior, including whether it’s a full page reload, new tab/window, modal, or SPA routing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The redirection method after selecting a publishing option is unclear (e.g., new page, new tab, modal, or in-page routing). </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-027</t>
+  </si>
+  <si>
+    <t>LH-SRS-LOGIN-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split this into two clear requirements: one for validating the email format, and another for checking if the user is registered.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The requirement merges email format validation and registration status check in one sentence, which may cause confusion. </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-028</t>
+  </si>
+  <si>
+    <t>LH-SRS-LOGIN-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify the salting approach more clearly or refer to a standard (e.g., per-user unique salt, random-generated salt).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase “simple salting mechanism” is vague and may be interpreted differently by developers. </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-029</t>
+  </si>
+  <si>
+    <t>LH-SRS-LOGIN-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarify that plain-text passwords must not be stored in the database, logs, or transmitted over the network.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase “at any stage” may raise ambiguity during input handling or temporary memory use. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +733,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -821,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -971,9 +1045,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1012,6 +1083,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1289,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A20" zoomScale="50" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1337,7 +1459,7 @@
       <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="53" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1367,10 +1489,10 @@
       <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1400,10 +1522,10 @@
       <c r="H3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="58" t="s">
+      <c r="I3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1433,10 +1555,10 @@
       <c r="H4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1466,13 +1588,13 @@
       <c r="H5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="59"/>
+      <c r="I5" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:11" ht="30">
       <c r="A6" s="18">
@@ -1500,13 +1622,13 @@
       <c r="H6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="59"/>
+      <c r="I6" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="30">
       <c r="A7" s="30">
@@ -1534,10 +1656,10 @@
       <c r="H7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="58" t="s">
+      <c r="I7" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1567,10 +1689,10 @@
       <c r="H8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="56" t="s">
+      <c r="I8" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1600,10 +1722,10 @@
       <c r="H9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="58" t="s">
+      <c r="I9" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1633,10 +1755,10 @@
       <c r="H10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="56" t="s">
+      <c r="I10" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1666,10 +1788,10 @@
       <c r="H11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="58" t="s">
+      <c r="I11" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="57" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1699,10 +1821,10 @@
       <c r="H12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="56" t="s">
+      <c r="I12" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1732,10 +1854,10 @@
       <c r="H13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="58" t="s">
+      <c r="I13" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1765,10 +1887,10 @@
       <c r="H14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="56" t="s">
+      <c r="I14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1797,10 +1919,10 @@
       <c r="H15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="61" t="s">
+      <c r="I15" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1893,10 +2015,10 @@
       <c r="H18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1932,35 +2054,35 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="53">
+    <row r="20" spans="1:10" s="81" customFormat="1">
+      <c r="A20" s="82">
         <v>45785</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="25" t="s">
+      <c r="I20" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="84" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1996,221 +2118,357 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="75">
-      <c r="A22" s="63">
+    <row r="22" spans="1:10" s="81" customFormat="1" ht="75">
+      <c r="A22" s="77">
         <v>45786</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="57" t="s">
+      <c r="I22" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="79" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="63">
+      <c r="A23" s="62">
         <v>45786</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="65" t="s">
+      <c r="H23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="57" t="s">
+      <c r="I23" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="63">
+    <row r="24" spans="1:10" s="81" customFormat="1">
+      <c r="A24" s="77">
         <v>45786</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="J24" s="79" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="63">
+      <c r="A25" s="62">
         <v>45786</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="65" t="s">
+      <c r="H25" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="57" t="s">
+      <c r="I25" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="57" t="s">
+      <c r="J25" s="56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="63">
+    <row r="26" spans="1:10" s="81" customFormat="1">
+      <c r="A26" s="77">
         <v>45786</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="57" t="s">
+      <c r="I26" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="57" t="s">
+      <c r="J26" s="79" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45">
-      <c r="A27" s="63">
+      <c r="A27" s="62">
         <v>45786</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="57" t="s">
+      <c r="H27" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="60"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="60"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
+    <row r="28" spans="1:10" s="70" customFormat="1" ht="60">
+      <c r="A28" s="66">
+        <v>45786</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="76" customFormat="1" ht="60">
+      <c r="A29" s="71">
+        <v>45786</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="81" customFormat="1" ht="60">
+      <c r="A30" s="77">
+        <v>45786</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="76" customFormat="1" ht="90">
+      <c r="A31" s="71">
+        <v>45786</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="81" customFormat="1" ht="60">
+      <c r="A32" s="77">
+        <v>45786</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="79" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2228,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2466,6 +2724,20 @@
         <v>45786</v>
       </c>
     </row>
+    <row r="17" spans="1:4" ht="18.75">
+      <c r="A17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45786</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\hhh\Group-3-Learning-hub-dev\LH_REVIEWS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
     <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +19,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="161">
   <si>
     <t>date</t>
   </si>
@@ -242,7 +239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">The CRS did not state that the PC and Web application should have </t>
@@ -253,7 +250,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>identical</t>
@@ -263,7 +260,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> feature sets</t>
@@ -311,7 +308,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>In the first column, the ID uses "CONSTRAINS" instead of "CONSTRAIN</t>
@@ -321,7 +318,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -331,7 +328,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">S". It should be fixed to maintain naming consistency </t>
@@ -401,251 +398,238 @@
 but the record must stop automatically..</t>
   </si>
   <si>
-    <t>LH-REVIEW-SRS-022</t>
-  </si>
-  <si>
-    <t>SRS-PUBLISHAUDIO-008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CRS did not mention anything related to a live timer, it will be static and after recording the evaluation of the record length will be executed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">please remove the part of "Live timer" </t>
-  </si>
-  <si>
-    <t>Version number</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Updated section</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>intial version</t>
-  </si>
-  <si>
-    <t>Added review comments under ID_CONSTRAINTS_REVIEWS, updated the version, and renamed the file to align with the naming convention defined in the project plan.</t>
-  </si>
-  <si>
-    <t>v1.2</t>
-  </si>
-  <si>
-    <t>Reviewed Publish and upload feature</t>
-  </si>
-  <si>
-    <t>v1.3</t>
-  </si>
-  <si>
-    <t>Reviewed Registration and System Constrains</t>
-  </si>
-  <si>
-    <t>v1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewed Admin Constraints </t>
-  </si>
-  <si>
-    <t>v1.5</t>
-  </si>
-  <si>
-    <t>Close reviewer verification for Login and ID_Constraints</t>
-  </si>
-  <si>
-    <t>v1.6</t>
-  </si>
-  <si>
-    <t>Close reviewer verification for Publish and upload feature</t>
-  </si>
-  <si>
-    <t>v1.7</t>
-  </si>
-  <si>
-    <t>Changed reviewer verification for Registration and System Constrains</t>
-  </si>
-  <si>
-    <t>v1.8</t>
-  </si>
-  <si>
-    <t>Changed reviewer verification for Admin Constrains</t>
-  </si>
-  <si>
-    <t>v1.9</t>
-  </si>
-  <si>
-    <t>Changed reviewer verification for Navigation</t>
-  </si>
-  <si>
-    <t>v2.0</t>
-  </si>
-  <si>
-    <t>Reviewed publish video</t>
-  </si>
-  <si>
-    <t>v2.1</t>
-  </si>
-  <si>
-    <t>Reviewed Delete Post</t>
-  </si>
-  <si>
-    <t>v2.2</t>
-  </si>
-  <si>
-    <t>Reviewed publish Audio</t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-023</t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-024</t>
-  </si>
-  <si>
-    <t>CRS IDs use LH-CRS-PUBLISHVIDEO-XXX, but SRS IDs use LH-SRS-PUBVID-XXX.</t>
-  </si>
-  <si>
-    <t>Align SRS IDs with CRS format (e.g., LH-SRS-PUBLISHVIDEO-XXX).</t>
-  </si>
-  <si>
-    <t>Mahmoud</t>
-  </si>
-  <si>
-    <t>SRS-PUBLISHVIDEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewed publish Video &amp; Admin Home </t>
-  </si>
-  <si>
-    <t>SRS-ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use namig by the name of the feature ADMIN Constrains </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naming like LH-SRS-DELETEPOST what is deletpost </t>
-  </si>
-  <si>
     <t>my recommendation is to eliminate the LH-SRS-PUBLISHAUDIO-007, or remove
  the part that mention the automatic stop of the recording to solve this conflict.</t>
   </si>
   <si>
+    <t>LH-REVIEW-SRS-022</t>
+  </si>
+  <si>
+    <t>SRS-PUBLISHAUDIO-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CRS did not mention anything related to a live timer, it will be static and after recording the evaluation of the record length will be executed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">please remove the part of "Live timer" </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-023</t>
+  </si>
+  <si>
+    <t>SRS-PUBLISHVIDEO</t>
+  </si>
+  <si>
+    <t>CRS IDs use LH-CRS-PUBLISHVIDEO-XXX, but SRS IDs use LH-SRS-PUBVID-XXX.</t>
+  </si>
+  <si>
+    <t>Align SRS IDs with CRS format (e.g., LH-SRS-PUBLISHVIDEO-XXX).</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-024</t>
+  </si>
+  <si>
+    <t>SRS-ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naming like LH-SRS-DELETEPOST what is deletpost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use namig by the name of the feature ADMIN Constrains </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-025</t>
+  </si>
+  <si>
+    <t>SRS-REGISTRATION</t>
+  </si>
+  <si>
+    <t>Ahme Abuzaid</t>
+  </si>
+  <si>
     <t>v2.4</t>
   </si>
   <si>
-    <t>Ahme Abuzaid</t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-025</t>
-  </si>
-  <si>
-    <t>SRS-REGISTRATION</t>
+    <t>you make a different error message for each error</t>
   </si>
   <si>
     <t xml:space="preserve">make all the error messages as generic message  </t>
   </si>
   <si>
-    <t>you make a different error message for each error</t>
-  </si>
-  <si>
     <t>Omar sherif</t>
   </si>
   <si>
+    <t>LH-REVIEW-SRS-026</t>
+  </si>
+  <si>
     <t>LH-SRS-REG-001</t>
   </si>
   <si>
-    <t>LH-REVIEW-SRS-026</t>
-  </si>
-  <si>
     <t>this srs is vague</t>
   </si>
   <si>
     <t>so it can be more specific and mention the component of the registration form like "the registration form consist of user name field,email field,password field and register button"</t>
   </si>
   <si>
+    <t>Version number</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Updated section</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>intial version</t>
+  </si>
+  <si>
+    <t>Added review comments under ID_CONSTRAINTS_REVIEWS, updated the version, and renamed the file to align with the naming convention defined in the project plan.</t>
+  </si>
+  <si>
+    <t>v1.2</t>
+  </si>
+  <si>
+    <t>Reviewed Publish and upload feature</t>
+  </si>
+  <si>
+    <t>v1.3</t>
+  </si>
+  <si>
+    <t>Reviewed Registration and System Constrains</t>
+  </si>
+  <si>
+    <t>v1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed Admin Constraints </t>
+  </si>
+  <si>
+    <t>v1.5</t>
+  </si>
+  <si>
+    <t>Close reviewer verification for Login and ID_Constraints</t>
+  </si>
+  <si>
+    <t>v1.6</t>
+  </si>
+  <si>
+    <t>Close reviewer verification for Publish and upload feature</t>
+  </si>
+  <si>
+    <t>v1.7</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Registration and System Constrains</t>
+  </si>
+  <si>
+    <t>v1.8</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Admin Constrains</t>
+  </si>
+  <si>
+    <t>v1.9</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Navigation</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+  </si>
+  <si>
+    <t>Reviewed publish video</t>
+  </si>
+  <si>
+    <t>v2.1</t>
+  </si>
+  <si>
+    <t>Reviewed Delete Post</t>
+  </si>
+  <si>
+    <t>v2.2</t>
+  </si>
+  <si>
+    <t>Reviewed publish Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed publish Video &amp; Admin Home </t>
+  </si>
+  <si>
     <t>Ahmed Abuzaid</t>
   </si>
   <si>
     <t>Reviewed Registration</t>
   </si>
   <si>
-    <t>Reviewed CATEGORIES &amp; LOGIN features</t>
-  </si>
-  <si>
     <t>v2.5</t>
   </si>
   <si>
-    <t>LH-SRS-CATEGORIES-007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clearly state the exact location where notifications will appear (e.g., Home Page banner, notification panel, or popup).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The SRS does not specify where the notifications will be shown in the UI. </t>
-  </si>
-  <si>
-    <t>Omar Shreif</t>
-  </si>
-  <si>
-    <t>LH-SRS-CATEGORIES-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify the exact redirection behavior, including whether it’s a full page reload, new tab/window, modal, or SPA routing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The redirection method after selecting a publishing option is unclear (e.g., new page, new tab, modal, or in-page routing). </t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-027</t>
-  </si>
-  <si>
-    <t>LH-SRS-LOGIN-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split this into two clear requirements: one for validating the email format, and another for checking if the user is registered.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The requirement merges email format validation and registration status check in one sentence, which may cause confusion. </t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-028</t>
-  </si>
-  <si>
-    <t>LH-SRS-LOGIN-009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify the salting approach more clearly or refer to a standard (e.g., per-user unique salt, random-generated salt).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The phrase “simple salting mechanism” is vague and may be interpreted differently by developers. </t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-029</t>
-  </si>
-  <si>
-    <t>LH-SRS-LOGIN-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarify that plain-text passwords must not be stored in the database, logs, or transmitted over the network.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The phrase “at any stage” may raise ambiguity during input handling or temporary memory use. </t>
+    <t>Close reviewer verification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,65 +639,110 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF404040"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,30 +750,61 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,7 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,24 +843,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -890,47 +1124,286 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -940,16 +1413,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="26" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,13 +1431,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -982,7 +1455,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -998,27 +1471,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1039,13 +1512,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,100 +1548,74 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1405,33 +1873,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="50" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.4285714285714" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="22.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="11.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="85" customWidth="1"/>
-    <col min="7" max="7" width="76.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="76.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="21.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="30.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="18.75">
+    <row r="1" s="12" customFormat="1" ht="18.75" spans="1:10">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1459,11 +1927,11 @@
       <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="75">
+    <row r="2" s="13" customFormat="1" ht="60" spans="1:10">
       <c r="A2" s="18">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1489,14 +1957,14 @@
       <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="45">
+      <c r="J2" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:10">
       <c r="A3" s="22">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1525,11 +1993,11 @@
       <c r="I3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30">
+      <c r="J3" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:10">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
@@ -1555,14 +2023,14 @@
       <c r="H4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30">
+      <c r="I4" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:11">
       <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1591,12 +2059,12 @@
       <c r="I5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="58"/>
-    </row>
-    <row r="6" spans="1:11" ht="30">
+      <c r="J5" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="64"/>
+    </row>
+    <row r="6" ht="30" spans="1:11">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1622,15 +2090,15 @@
       <c r="H6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="58"/>
-    </row>
-    <row r="7" spans="1:11" ht="30">
+      <c r="I6" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="64"/>
+    </row>
+    <row r="7" ht="30" spans="1:10">
       <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1659,11 +2127,11 @@
       <c r="I7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30">
+      <c r="J7" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:10">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1689,14 +2157,14 @@
       <c r="H8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="35.25" customHeight="1">
+      <c r="I8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="35.25" customHeight="1" spans="1:10">
       <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1725,11 +2193,11 @@
       <c r="I9" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45">
+      <c r="J9" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:10">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1755,14 +2223,14 @@
       <c r="H10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30">
+      <c r="I10" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:10">
       <c r="A11" s="30">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
@@ -1791,11 +2259,11 @@
       <c r="I11" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45">
+    <row r="12" ht="45" spans="1:10">
       <c r="A12" s="36">
         <f t="shared" ref="A12:A14" si="1">DATE(2025,4,17)</f>
         <v>45764</v>
@@ -1821,14 +2289,14 @@
       <c r="H12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="45">
+      <c r="I12" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:10">
       <c r="A13" s="30">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -1857,11 +2325,11 @@
       <c r="I13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45">
+      <c r="J13" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:10">
       <c r="A14" s="36">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -1887,14 +2355,14 @@
       <c r="H14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="41">
         <v>45765</v>
       </c>
@@ -1919,14 +2387,14 @@
       <c r="H15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30">
+      <c r="I15" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:10">
       <c r="A16" s="36">
         <v>45765</v>
       </c>
@@ -1958,7 +2426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
+    <row r="17" ht="30" spans="1:10">
       <c r="A17" s="30">
         <v>45765</v>
       </c>
@@ -1990,7 +2458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1">
+    <row r="18" s="14" customFormat="1" spans="1:10">
       <c r="A18" s="51">
         <v>45765</v>
       </c>
@@ -2015,10 +2483,10 @@
       <c r="H18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="66" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2054,35 +2522,35 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="81" customFormat="1">
-      <c r="A20" s="82">
+    <row r="20" spans="1:10">
+      <c r="A20" s="53">
         <v>45785</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="84" t="s">
+      <c r="H20" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="84" t="s">
+      <c r="I20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2118,47 +2586,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="81" customFormat="1" ht="75">
-      <c r="A22" s="77">
+    <row r="22" ht="75" spans="1:10">
+      <c r="A22" s="54">
         <v>45786</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="F22" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" s="79" t="s">
+      <c r="G22" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="79" t="s">
-        <v>58</v>
+      <c r="I22" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="56" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="62">
+      <c r="A23" s="54">
         <v>45786</v>
       </c>
-      <c r="B23" s="59" t="s">
-        <v>102</v>
+      <c r="B23" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" s="56" t="s">
         <v>29</v>
@@ -2167,76 +2635,76 @@
         <v>93</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="58" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="56" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="54">
+        <v>45786</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="81" customFormat="1">
-      <c r="A24" s="77">
+      <c r="J24" s="56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="54">
         <v>45786</v>
       </c>
-      <c r="B24" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="79" t="s">
+      <c r="B25" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E25" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="I24" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="62">
-        <v>45786</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="64" t="s">
+      <c r="F25" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="58" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="56" t="s">
@@ -2246,62 +2714,62 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="81" customFormat="1">
-      <c r="A26" s="77">
+    <row r="26" spans="1:10">
+      <c r="A26" s="54">
         <v>45786</v>
       </c>
-      <c r="B26" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="79" t="s">
+      <c r="B26" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="79" t="s">
+      <c r="J26" s="56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45">
-      <c r="A27" s="62">
+    <row r="27" ht="45" spans="1:10">
+      <c r="A27" s="54">
         <v>45786</v>
       </c>
-      <c r="B27" s="59" t="s">
-        <v>154</v>
+      <c r="B27" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>156</v>
+        <v>119</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>126</v>
       </c>
       <c r="H27" s="56" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="I27" s="56" t="s">
         <v>58</v>
@@ -2310,168 +2778,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="70" customFormat="1" ht="60">
-      <c r="A28" s="66">
-        <v>45786</v>
-      </c>
-      <c r="B28" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="76" customFormat="1" ht="60">
-      <c r="A29" s="71">
-        <v>45786</v>
-      </c>
-      <c r="B29" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="81" customFormat="1" ht="60">
-      <c r="A30" s="77">
-        <v>45786</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="76" customFormat="1" ht="90">
-      <c r="A31" s="71">
-        <v>45786</v>
-      </c>
-      <c r="B31" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" s="75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="81" customFormat="1" ht="60">
-      <c r="A32" s="77">
-        <v>45786</v>
-      </c>
-      <c r="B32" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="79" t="s">
-        <v>58</v>
-      </c>
+    <row r="28" spans="1:10">
+      <c r="A28" s="55"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="55"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15">
       <formula1>"open,in progress,closed,not applicable"</formula1>
@@ -2481,54 +2812,56 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="33.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="78.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
+    <row r="1" ht="20.25" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D2" s="5">
         <v>45760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75">
+    <row r="3" ht="75" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2536,167 +2869,167 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D3" s="8">
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
+    <row r="4" ht="18.75" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D4" s="11">
         <v>45761</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" ht="18.75" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="D5" s="11">
         <v>45764</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
+    <row r="6" ht="18.75" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D6" s="11">
         <v>45765</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
+    <row r="7" ht="18.75" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D7" s="5">
         <v>45765</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
+    <row r="8" ht="18.75" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D8" s="5">
         <v>45765</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="37.5">
+    <row r="9" ht="37.5" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D9" s="5">
         <v>45766</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75">
+    <row r="10" ht="18.75" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D10" s="5">
         <v>45766</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75">
+    <row r="11" ht="18.75" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D11" s="5">
         <v>45767</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75">
+    <row r="12" ht="18.75" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D12" s="5">
         <v>45785</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75">
+    <row r="13" ht="18.75" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D13" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75">
+    <row r="14" ht="18.75" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D14" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75">
+    <row r="15" ht="18.75" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -2704,15 +3037,15 @@
         <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75">
+    <row r="16" ht="18.75" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>157</v>
@@ -2724,22 +3057,22 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75">
+    <row r="17" ht="18.75" spans="1:4">
       <c r="A17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D17" s="5">
         <v>45786</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\hhh\Group-3-Learning-hub-dev\LH_REVIEWS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
     <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -19,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="187">
   <si>
     <t>date</t>
   </si>
@@ -239,7 +242,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">The CRS did not state that the PC and Web application should have </t>
@@ -250,7 +253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>identical</t>
@@ -260,7 +263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> feature sets</t>
@@ -308,7 +311,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>In the first column, the ID uses "CONSTRAINS" instead of "CONSTRAIN</t>
@@ -318,7 +321,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -328,7 +331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">S". It should be fixed to maintain naming consistency </t>
@@ -398,47 +401,143 @@
 but the record must stop automatically..</t>
   </si>
   <si>
+    <t>LH-REVIEW-SRS-022</t>
+  </si>
+  <si>
+    <t>SRS-PUBLISHAUDIO-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CRS did not mention anything related to a live timer, it will be static and after recording the evaluation of the record length will be executed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">please remove the part of "Live timer" </t>
+  </si>
+  <si>
+    <t>Version number</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Updated section</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>intial version</t>
+  </si>
+  <si>
+    <t>Added review comments under ID_CONSTRAINTS_REVIEWS, updated the version, and renamed the file to align with the naming convention defined in the project plan.</t>
+  </si>
+  <si>
+    <t>v1.2</t>
+  </si>
+  <si>
+    <t>Reviewed Publish and upload feature</t>
+  </si>
+  <si>
+    <t>v1.3</t>
+  </si>
+  <si>
+    <t>Reviewed Registration and System Constrains</t>
+  </si>
+  <si>
+    <t>v1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed Admin Constraints </t>
+  </si>
+  <si>
+    <t>v1.5</t>
+  </si>
+  <si>
+    <t>Close reviewer verification for Login and ID_Constraints</t>
+  </si>
+  <si>
+    <t>v1.6</t>
+  </si>
+  <si>
+    <t>Close reviewer verification for Publish and upload feature</t>
+  </si>
+  <si>
+    <t>v1.7</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Registration and System Constrains</t>
+  </si>
+  <si>
+    <t>v1.8</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Admin Constrains</t>
+  </si>
+  <si>
+    <t>v1.9</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Navigation</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+  </si>
+  <si>
+    <t>Reviewed publish video</t>
+  </si>
+  <si>
+    <t>v2.1</t>
+  </si>
+  <si>
+    <t>Reviewed Delete Post</t>
+  </si>
+  <si>
+    <t>v2.2</t>
+  </si>
+  <si>
+    <t>Reviewed publish Audio</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-023</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-024</t>
+  </si>
+  <si>
+    <t>CRS IDs use LH-CRS-PUBLISHVIDEO-XXX, but SRS IDs use LH-SRS-PUBVID-XXX.</t>
+  </si>
+  <si>
+    <t>Align SRS IDs with CRS format (e.g., LH-SRS-PUBLISHVIDEO-XXX).</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
+  </si>
+  <si>
+    <t>SRS-PUBLISHVIDEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed publish Video &amp; Admin Home </t>
+  </si>
+  <si>
+    <t>SRS-ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use namig by the name of the feature ADMIN Constrains </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naming like LH-SRS-DELETEPOST what is deletpost </t>
+  </si>
+  <si>
     <t>my recommendation is to eliminate the LH-SRS-PUBLISHAUDIO-007, or remove
  the part that mention the automatic stop of the recording to solve this conflict.</t>
   </si>
   <si>
-    <t>LH-REVIEW-SRS-022</t>
-  </si>
-  <si>
-    <t>SRS-PUBLISHAUDIO-008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CRS did not mention anything related to a live timer, it will be static and after recording the evaluation of the record length will be executed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">please remove the part of "Live timer" </t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-023</t>
-  </si>
-  <si>
-    <t>SRS-PUBLISHVIDEO</t>
-  </si>
-  <si>
-    <t>CRS IDs use LH-CRS-PUBLISHVIDEO-XXX, but SRS IDs use LH-SRS-PUBVID-XXX.</t>
-  </si>
-  <si>
-    <t>Align SRS IDs with CRS format (e.g., LH-SRS-PUBLISHVIDEO-XXX).</t>
-  </si>
-  <si>
-    <t>Mahmoud</t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-024</t>
-  </si>
-  <si>
-    <t>SRS-ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naming like LH-SRS-DELETEPOST what is deletpost </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use namig by the name of the feature ADMIN Constrains </t>
+    <t>v2.4</t>
+  </si>
+  <si>
+    <t>Ahme Abuzaid</t>
   </si>
   <si>
     <t>LH-REVIEW-SRS-025</t>
@@ -447,189 +546,127 @@
     <t>SRS-REGISTRATION</t>
   </si>
   <si>
-    <t>Ahme Abuzaid</t>
-  </si>
-  <si>
-    <t>v2.4</t>
+    <t xml:space="preserve">make all the error messages as generic message  </t>
   </si>
   <si>
     <t>you make a different error message for each error</t>
   </si>
   <si>
-    <t xml:space="preserve">make all the error messages as generic message  </t>
-  </si>
-  <si>
     <t>Omar sherif</t>
   </si>
   <si>
+    <t>LH-SRS-REG-001</t>
+  </si>
+  <si>
     <t>LH-REVIEW-SRS-026</t>
   </si>
   <si>
-    <t>LH-SRS-REG-001</t>
-  </si>
-  <si>
     <t>this srs is vague</t>
   </si>
   <si>
     <t>so it can be more specific and mention the component of the registration form like "the registration form consist of user name field,email field,password field and register button"</t>
   </si>
   <si>
-    <t>Version number</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Updated section</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>intial version</t>
-  </si>
-  <si>
-    <t>Added review comments under ID_CONSTRAINTS_REVIEWS, updated the version, and renamed the file to align with the naming convention defined in the project plan.</t>
-  </si>
-  <si>
-    <t>v1.2</t>
-  </si>
-  <si>
-    <t>Reviewed Publish and upload feature</t>
-  </si>
-  <si>
-    <t>v1.3</t>
-  </si>
-  <si>
-    <t>Reviewed Registration and System Constrains</t>
-  </si>
-  <si>
-    <t>v1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewed Admin Constraints </t>
-  </si>
-  <si>
-    <t>v1.5</t>
-  </si>
-  <si>
-    <t>Close reviewer verification for Login and ID_Constraints</t>
-  </si>
-  <si>
-    <t>v1.6</t>
-  </si>
-  <si>
-    <t>Close reviewer verification for Publish and upload feature</t>
-  </si>
-  <si>
-    <t>v1.7</t>
-  </si>
-  <si>
-    <t>Changed reviewer verification for Registration and System Constrains</t>
-  </si>
-  <si>
-    <t>v1.8</t>
-  </si>
-  <si>
-    <t>Changed reviewer verification for Admin Constrains</t>
-  </si>
-  <si>
-    <t>v1.9</t>
-  </si>
-  <si>
-    <t>Changed reviewer verification for Navigation</t>
-  </si>
-  <si>
-    <t>v2.0</t>
-  </si>
-  <si>
-    <t>Reviewed publish video</t>
-  </si>
-  <si>
-    <t>v2.1</t>
-  </si>
-  <si>
-    <t>Reviewed Delete Post</t>
-  </si>
-  <si>
-    <t>v2.2</t>
-  </si>
-  <si>
-    <t>Reviewed publish Audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewed publish Video &amp; Admin Home </t>
-  </si>
-  <si>
     <t>Ahmed Abuzaid</t>
   </si>
   <si>
     <t>Reviewed Registration</t>
   </si>
   <si>
+    <t>Reviewed CATEGORIES &amp; LOGIN features</t>
+  </si>
+  <si>
     <t>v2.5</t>
   </si>
   <si>
+    <t>LH-SRS-CATEGORIES-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clearly state the exact location where notifications will appear (e.g., Home Page banner, notification panel, or popup).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SRS does not specify where the notifications will be shown in the UI. </t>
+  </si>
+  <si>
+    <t>Omar Shreif</t>
+  </si>
+  <si>
+    <t>LH-SRS-CATEGORIES-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify the exact redirection behavior, including whether it’s a full page reload, new tab/window, modal, or SPA routing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The redirection method after selecting a publishing option is unclear (e.g., new page, new tab, modal, or in-page routing). </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-027</t>
+  </si>
+  <si>
+    <t>LH-SRS-LOGIN-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split this into two clear requirements: one for validating the email format, and another for checking if the user is registered.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The requirement merges email format validation and registration status check in one sentence, which may cause confusion. </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-028</t>
+  </si>
+  <si>
+    <t>LH-SRS-LOGIN-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify the salting approach more clearly or refer to a standard (e.g., per-user unique salt, random-generated salt).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase “simple salting mechanism” is vague and may be interpreted differently by developers. </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-029</t>
+  </si>
+  <si>
+    <t>LH-SRS-LOGIN-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarify that plain-text passwords must not be stored in the database, logs, or transmitted over the network.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase “at any stage” may raise ambiguity during input handling or temporary memory use. </t>
+  </si>
+  <si>
     <t>Close reviewer verification</t>
+  </si>
+  <si>
+    <t>v2.6</t>
+  </si>
+  <si>
+    <t>v2.7</t>
+  </si>
+  <si>
+    <t>Reviewed DELETEUSER feature</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-006</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The message content for a non-matching user is not explicitly defined. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Roboto"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,110 +676,79 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF404040"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -750,61 +756,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,7 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,198 +824,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1124,286 +931,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1413,16 +981,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="26" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1431,13 +999,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1455,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1471,27 +1039,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1512,110 +1080,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1873,33 +1470,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="77" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="22.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="11.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="85" customWidth="1"/>
-    <col min="7" max="7" width="76.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="21.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="30.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="76.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="18.75" spans="1:10">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1927,11 +1524,11 @@
       <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="60" spans="1:10">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="75">
       <c r="A2" s="18">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1957,14 +1554,14 @@
       <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:10">
+      <c r="J2" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="22">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1993,11 +1590,11 @@
       <c r="I3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:10">
+      <c r="J3" s="57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
@@ -2023,14 +1620,14 @@
       <c r="H4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="30" spans="1:11">
+      <c r="I4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2059,12 +1656,12 @@
       <c r="I5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="64"/>
-    </row>
-    <row r="6" ht="30" spans="1:11">
+      <c r="J5" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2090,15 +1687,15 @@
       <c r="H6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="7" ht="30" spans="1:10">
+      <c r="I6" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2127,11 +1724,11 @@
       <c r="I7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:10">
+      <c r="J7" s="57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2157,14 +1754,14 @@
       <c r="H8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="35.25" customHeight="1" spans="1:10">
+      <c r="I8" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="35.25" customHeight="1">
       <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2193,11 +1790,11 @@
       <c r="I9" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:10">
+      <c r="J9" s="57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -2223,14 +1820,14 @@
       <c r="H10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="30" spans="1:10">
+      <c r="I10" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="30">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
@@ -2259,11 +1856,11 @@
       <c r="I11" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="45" spans="1:10">
+    <row r="12" spans="1:11" ht="45">
       <c r="A12" s="36">
         <f t="shared" ref="A12:A14" si="1">DATE(2025,4,17)</f>
         <v>45764</v>
@@ -2289,14 +1886,14 @@
       <c r="H12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="1:10">
+      <c r="I12" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45">
       <c r="A13" s="30">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -2325,11 +1922,11 @@
       <c r="I13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="45" spans="1:10">
+      <c r="J13" s="57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="36">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -2355,14 +1952,14 @@
       <c r="H14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="I14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="41">
         <v>45765</v>
       </c>
@@ -2387,14 +1984,14 @@
       <c r="H15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="1:10">
+      <c r="I15" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30">
       <c r="A16" s="36">
         <v>45765</v>
       </c>
@@ -2426,7 +2023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="1:10">
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="30">
         <v>45765</v>
       </c>
@@ -2458,7 +2055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" s="14" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="14" customFormat="1">
       <c r="A18" s="51">
         <v>45765</v>
       </c>
@@ -2483,10 +2080,10 @@
       <c r="H18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="66" t="s">
+      <c r="I18" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2522,35 +2119,35 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="53">
+    <row r="20" spans="1:10" s="81" customFormat="1">
+      <c r="A20" s="82">
         <v>45785</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="25" t="s">
+      <c r="I20" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="84" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2586,47 +2183,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="75" spans="1:10">
-      <c r="A22" s="54">
+    <row r="22" spans="1:10" s="81" customFormat="1" ht="75">
+      <c r="A22" s="77">
         <v>45786</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="62">
+        <v>45786</v>
+      </c>
+      <c r="B23" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="54">
-        <v>45786</v>
-      </c>
-      <c r="B23" s="55" t="s">
+      <c r="C23" s="56" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>104</v>
       </c>
       <c r="D23" s="56" t="s">
         <v>29</v>
@@ -2635,12 +2232,12 @@
         <v>93</v>
       </c>
       <c r="F23" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="64" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="56" t="s">
@@ -2650,61 +2247,61 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="54">
+    <row r="24" spans="1:10" s="81" customFormat="1">
+      <c r="A24" s="77">
         <v>45786</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="58" t="s">
+      <c r="B24" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="56" t="s">
+      <c r="F24" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="56" t="s">
+      <c r="J24" s="79" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="54">
+      <c r="A25" s="62">
         <v>45786</v>
       </c>
-      <c r="B25" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="58" t="s">
+      <c r="B25" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="58" t="s">
+      <c r="F25" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="64" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="56" t="s">
@@ -2714,62 +2311,62 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="54">
+    <row r="26" spans="1:10" s="81" customFormat="1">
+      <c r="A26" s="77">
         <v>45786</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="56" t="s">
+      <c r="B26" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="56" t="s">
+      <c r="J26" s="79" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" ht="45" spans="1:10">
-      <c r="A27" s="54">
+    <row r="27" spans="1:10" ht="45">
+      <c r="A27" s="62">
         <v>45786</v>
       </c>
-      <c r="B27" s="55" t="s">
-        <v>123</v>
+      <c r="B27" s="59" t="s">
+        <v>154</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>126</v>
+        <v>146</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>156</v>
       </c>
       <c r="H27" s="56" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="I27" s="56" t="s">
         <v>58</v>
@@ -2778,31 +2375,200 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="55"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="55"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
+    <row r="28" spans="1:10" s="70" customFormat="1" ht="60">
+      <c r="A28" s="66">
+        <v>45786</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="76" customFormat="1" ht="60">
+      <c r="A29" s="71">
+        <v>45786</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="81" customFormat="1" ht="60">
+      <c r="A30" s="77">
+        <v>45786</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="76" customFormat="1" ht="90">
+      <c r="A31" s="71">
+        <v>45786</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="81" customFormat="1" ht="60">
+      <c r="A32" s="77">
+        <v>45786</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="81" customFormat="1" ht="30">
+      <c r="A33" s="77">
+        <v>45787</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="79" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15">
       <formula1>"open,in progress,closed,not applicable"</formula1>
@@ -2812,56 +2578,54 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="33.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="78.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
+    <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5">
         <v>45760</v>
       </c>
     </row>
-    <row r="3" ht="75" spans="1:4">
+    <row r="3" spans="1:4" ht="75">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2869,167 +2633,167 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D3" s="8">
         <v>45761</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:4">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="9" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D4" s="11">
         <v>45761</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="9" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D5" s="11">
         <v>45764</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:4">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="9" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D6" s="11">
         <v>45765</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:4">
+    <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D7" s="5">
         <v>45765</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:4">
+    <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D8" s="5">
         <v>45765</v>
       </c>
     </row>
-    <row r="9" ht="37.5" spans="1:4">
+    <row r="9" spans="1:4" ht="37.5">
       <c r="A9" s="3" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D9" s="5">
         <v>45766</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="1:4">
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D10" s="5">
         <v>45766</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="1:4">
+    <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D11" s="5">
         <v>45767</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="1:4">
+    <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D12" s="5">
         <v>45785</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="1:4">
+    <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D13" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="1:4">
+    <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D14" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="15" ht="18.75" spans="1:4">
+    <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -3037,15 +2801,15 @@
         <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D15" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="16" ht="18.75" spans="1:4">
+    <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>157</v>
@@ -3057,22 +2821,50 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="17" ht="18.75" spans="1:4">
+    <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D17" s="5">
         <v>45786</v>
       </c>
     </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="A18" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="87">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="A19" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="87">
+        <v>45786</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\hhh\Group-3-Learning-hub-dev\LH_REVIEWS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
     <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +19,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="189">
   <si>
     <t>date</t>
   </si>
@@ -242,7 +239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">The CRS did not state that the PC and Web application should have </t>
@@ -253,7 +250,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>identical</t>
@@ -263,7 +260,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> feature sets</t>
@@ -311,7 +308,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>In the first column, the ID uses "CONSTRAINS" instead of "CONSTRAIN</t>
@@ -321,7 +318,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -331,7 +328,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">S". It should be fixed to maintain naming consistency </t>
@@ -401,182 +398,80 @@
 but the record must stop automatically..</t>
   </si>
   <si>
-    <t>LH-REVIEW-SRS-022</t>
-  </si>
-  <si>
-    <t>SRS-PUBLISHAUDIO-008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CRS did not mention anything related to a live timer, it will be static and after recording the evaluation of the record length will be executed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">please remove the part of "Live timer" </t>
-  </si>
-  <si>
-    <t>Version number</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Updated section</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>intial version</t>
-  </si>
-  <si>
-    <t>Added review comments under ID_CONSTRAINTS_REVIEWS, updated the version, and renamed the file to align with the naming convention defined in the project plan.</t>
-  </si>
-  <si>
-    <t>v1.2</t>
-  </si>
-  <si>
-    <t>Reviewed Publish and upload feature</t>
-  </si>
-  <si>
-    <t>v1.3</t>
-  </si>
-  <si>
-    <t>Reviewed Registration and System Constrains</t>
-  </si>
-  <si>
-    <t>v1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewed Admin Constraints </t>
-  </si>
-  <si>
-    <t>v1.5</t>
-  </si>
-  <si>
-    <t>Close reviewer verification for Login and ID_Constraints</t>
-  </si>
-  <si>
-    <t>v1.6</t>
-  </si>
-  <si>
-    <t>Close reviewer verification for Publish and upload feature</t>
-  </si>
-  <si>
-    <t>v1.7</t>
-  </si>
-  <si>
-    <t>Changed reviewer verification for Registration and System Constrains</t>
-  </si>
-  <si>
-    <t>v1.8</t>
-  </si>
-  <si>
-    <t>Changed reviewer verification for Admin Constrains</t>
-  </si>
-  <si>
-    <t>v1.9</t>
-  </si>
-  <si>
-    <t>Changed reviewer verification for Navigation</t>
-  </si>
-  <si>
-    <t>v2.0</t>
-  </si>
-  <si>
-    <t>Reviewed publish video</t>
-  </si>
-  <si>
-    <t>v2.1</t>
-  </si>
-  <si>
-    <t>Reviewed Delete Post</t>
-  </si>
-  <si>
-    <t>v2.2</t>
-  </si>
-  <si>
-    <t>Reviewed publish Audio</t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-023</t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-024</t>
-  </si>
-  <si>
-    <t>CRS IDs use LH-CRS-PUBLISHVIDEO-XXX, but SRS IDs use LH-SRS-PUBVID-XXX.</t>
-  </si>
-  <si>
-    <t>Align SRS IDs with CRS format (e.g., LH-SRS-PUBLISHVIDEO-XXX).</t>
-  </si>
-  <si>
-    <t>Mahmoud</t>
-  </si>
-  <si>
-    <t>SRS-PUBLISHVIDEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewed publish Video &amp; Admin Home </t>
-  </si>
-  <si>
-    <t>SRS-ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use namig by the name of the feature ADMIN Constrains </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naming like LH-SRS-DELETEPOST what is deletpost </t>
-  </si>
-  <si>
     <t>my recommendation is to eliminate the LH-SRS-PUBLISHAUDIO-007, or remove
  the part that mention the automatic stop of the recording to solve this conflict.</t>
   </si>
   <si>
+    <t>LH-REVIEW-SRS-022</t>
+  </si>
+  <si>
+    <t>SRS-PUBLISHAUDIO-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CRS did not mention anything related to a live timer, it will be static and after recording the evaluation of the record length will be executed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">please remove the part of "Live timer" </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-023</t>
+  </si>
+  <si>
+    <t>SRS-PUBLISHVIDEO</t>
+  </si>
+  <si>
+    <t>CRS IDs use LH-CRS-PUBLISHVIDEO-XXX, but SRS IDs use LH-SRS-PUBVID-XXX.</t>
+  </si>
+  <si>
+    <t>Align SRS IDs with CRS format (e.g., LH-SRS-PUBLISHVIDEO-XXX).</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-024</t>
+  </si>
+  <si>
+    <t>SRS-ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naming like LH-SRS-DELETEPOST what is deletpost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use namig by the name of the feature ADMIN Constrains </t>
+  </si>
+  <si>
+    <t>LH-REVIEW-SRS-025</t>
+  </si>
+  <si>
+    <t>SRS-REGISTRATION</t>
+  </si>
+  <si>
+    <t>Ahme Abuzaid</t>
+  </si>
+  <si>
     <t>v2.4</t>
   </si>
   <si>
-    <t>Ahme Abuzaid</t>
-  </si>
-  <si>
-    <t>LH-REVIEW-SRS-025</t>
-  </si>
-  <si>
-    <t>SRS-REGISTRATION</t>
+    <t>you make a different error message for each error</t>
   </si>
   <si>
     <t xml:space="preserve">make all the error messages as generic message  </t>
   </si>
   <si>
-    <t>you make a different error message for each error</t>
-  </si>
-  <si>
     <t>Omar sherif</t>
   </si>
   <si>
+    <t>LH-REVIEW-SRS-026</t>
+  </si>
+  <si>
     <t>LH-SRS-REG-001</t>
   </si>
   <si>
-    <t>LH-REVIEW-SRS-026</t>
-  </si>
-  <si>
     <t>this srs is vague</t>
   </si>
   <si>
     <t>so it can be more specific and mention the component of the registration form like "the registration form consist of user name field,email field,password field and register button"</t>
-  </si>
-  <si>
-    <t>Ahmed Abuzaid</t>
-  </si>
-  <si>
-    <t>Reviewed Registration</t>
-  </si>
-  <si>
-    <t>Reviewed CATEGORIES &amp; LOGIN features</t>
-  </si>
-  <si>
-    <t>v2.5</t>
   </si>
   <si>
     <t>LH-SRS-CATEGORIES-007</t>
@@ -608,6 +503,9 @@
     <t>LH-SRS-LOGIN-002</t>
   </si>
   <si>
+    <t>v2.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Split this into two clear requirements: one for validating the email format, and another for checking if the user is registered.
 </t>
   </si>
@@ -641,32 +539,143 @@
     <t xml:space="preserve">The phrase “at any stage” may raise ambiguity during input handling or temporary memory use. </t>
   </si>
   <si>
+    <t>LH-REVIEW-SRS-030</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The message content for a non-matching user is not explicitly defined. </t>
+  </si>
+  <si>
+    <t>Version number</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Updated section</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>intial version</t>
+  </si>
+  <si>
+    <t>Added review comments under ID_CONSTRAINTS_REVIEWS, updated the version, and renamed the file to align with the naming convention defined in the project plan.</t>
+  </si>
+  <si>
+    <t>v1.2</t>
+  </si>
+  <si>
+    <t>Reviewed Publish and upload feature</t>
+  </si>
+  <si>
+    <t>v1.3</t>
+  </si>
+  <si>
+    <t>Reviewed Registration and System Constrains</t>
+  </si>
+  <si>
+    <t>v1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed Admin Constraints </t>
+  </si>
+  <si>
+    <t>v1.5</t>
+  </si>
+  <si>
+    <t>Close reviewer verification for Login and ID_Constraints</t>
+  </si>
+  <si>
+    <t>v1.6</t>
+  </si>
+  <si>
+    <t>Close reviewer verification for Publish and upload feature</t>
+  </si>
+  <si>
+    <t>v1.7</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Registration and System Constrains</t>
+  </si>
+  <si>
+    <t>v1.8</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Admin Constrains</t>
+  </si>
+  <si>
+    <t>v1.9</t>
+  </si>
+  <si>
+    <t>Changed reviewer verification for Navigation</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+  </si>
+  <si>
+    <t>Reviewed publish video</t>
+  </si>
+  <si>
+    <t>v2.1</t>
+  </si>
+  <si>
+    <t>Reviewed Delete Post</t>
+  </si>
+  <si>
+    <t>v2.2</t>
+  </si>
+  <si>
+    <t>Reviewed publish Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed publish Video &amp; Admin Home </t>
+  </si>
+  <si>
+    <t>Ahmed Abuzaid</t>
+  </si>
+  <si>
+    <t>Reviewed Registration</t>
+  </si>
+  <si>
+    <t>v2.5</t>
+  </si>
+  <si>
+    <t>Reviewed CATEGORIES &amp; LOGIN features</t>
+  </si>
+  <si>
+    <t>v2.6</t>
+  </si>
+  <si>
     <t>Close reviewer verification</t>
   </si>
   <si>
-    <t>v2.6</t>
-  </si>
-  <si>
-    <t>v2.7</t>
-  </si>
-  <si>
     <t>Reviewed DELETEUSER feature</t>
   </si>
   <si>
-    <t>LH-SRS-DELETEUSER-006</t>
-  </si>
-  <si>
-    <t>LH-SRS-DELETEUSER-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The message content for a non-matching user is not explicitly defined. </t>
+    <t>v2.8</t>
+  </si>
+  <si>
+    <t>Closed owner review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,58 +684,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Roboto"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -734,21 +722,115 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,36 +838,61 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,7 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,24 +931,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -931,66 +1212,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="26"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="26" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="26" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="26" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,13 +1522,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1023,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1039,27 +1562,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1080,13 +1603,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="26" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="5" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,124 +1690,77 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1470,1105 +2018,1104 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="77" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.4285714285714" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.6857142857143" customWidth="1"/>
+    <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="22.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="11.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="85" customWidth="1"/>
-    <col min="7" max="7" width="76.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="76.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="21.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="30.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="18.75">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="12" customFormat="1" ht="18.75" spans="1:10">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="80" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="75">
-      <c r="A2" s="18">
+    <row r="2" s="13" customFormat="1" ht="60" spans="1:10">
+      <c r="A2" s="21">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="45">
-      <c r="A3" s="22">
+      <c r="J2" s="82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:10">
+      <c r="A3" s="25">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="18">
+      <c r="I3" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:10">
+      <c r="A4" s="21">
         <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30">
-      <c r="A5" s="30">
+      <c r="I4" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:11">
+      <c r="A5" s="33">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="58"/>
-    </row>
-    <row r="6" spans="1:11" ht="30">
-      <c r="A6" s="18">
+      <c r="I5" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" ht="30" spans="1:11">
+      <c r="A6" s="21">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="58"/>
-    </row>
-    <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="30">
+      <c r="I6" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="84"/>
+    </row>
+    <row r="7" ht="30" spans="1:10">
+      <c r="A7" s="33">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="18">
+      <c r="I7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:10">
+      <c r="A8" s="21">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A9" s="30">
+      <c r="I8" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="35.25" customHeight="1" spans="1:10">
+      <c r="A9" s="33">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45">
-      <c r="A10" s="18">
+      <c r="I9" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:10">
+      <c r="A10" s="21">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30">
-      <c r="A11" s="30">
+      <c r="I10" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:10">
+      <c r="A11" s="33">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="57" t="s">
+      <c r="I11" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="83" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45">
-      <c r="A12" s="36">
+    <row r="12" ht="45" spans="1:10">
+      <c r="A12" s="39">
         <f t="shared" ref="A12:A14" si="1">DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="30">
+      <c r="I12" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:10">
+      <c r="A13" s="33">
         <f t="shared" si="1"/>
         <v>45764</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45">
-      <c r="A14" s="36">
+      <c r="I13" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:10">
+      <c r="A14" s="39">
         <f t="shared" si="1"/>
         <v>45764</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="41">
+      <c r="I14" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="44">
         <v>45765</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30">
-      <c r="A16" s="36">
+      <c r="I15" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:10">
+      <c r="A16" s="39">
         <v>45765</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30">
-      <c r="A17" s="30">
+      <c r="I16" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:10">
+      <c r="A17" s="33">
         <v>45765</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="14" customFormat="1">
-      <c r="A18" s="51">
+      <c r="I17" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" s="14" customFormat="1" spans="1:10">
+      <c r="A18" s="54">
         <v>45765</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="86" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="30">
+      <c r="A19" s="33">
         <v>45765</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="81" customFormat="1">
-      <c r="A20" s="82">
+    <row r="20" s="15" customFormat="1" spans="1:10">
+      <c r="A20" s="56">
         <v>45785</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="84" t="s">
+      <c r="H20" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="84" t="s">
+      <c r="I20" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="58" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="30">
+      <c r="A21" s="33">
         <v>45786</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="81" customFormat="1" ht="75">
-      <c r="A22" s="77">
+      <c r="I21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" s="15" customFormat="1" ht="75" spans="1:10">
+      <c r="A22" s="59">
         <v>45786</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="F22" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="G22" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="63">
+        <v>45786</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="1:10">
+      <c r="A24" s="59">
+        <v>45786</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="63">
+        <v>45786</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" s="15" customFormat="1" spans="1:10">
+      <c r="A26" s="59">
+        <v>45786</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="1:10">
+      <c r="A27" s="63">
+        <v>45786</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" s="16" customFormat="1" ht="60" spans="1:10">
+      <c r="A28" s="69">
+        <v>45786</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" s="17" customFormat="1" ht="60" spans="1:10">
+      <c r="A29" s="73">
+        <v>45786</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" s="15" customFormat="1" ht="60" spans="1:10">
+      <c r="A30" s="59">
+        <v>45786</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" s="17" customFormat="1" ht="90" spans="1:10">
+      <c r="A31" s="73">
+        <v>45786</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" s="15" customFormat="1" ht="60" spans="1:10">
+      <c r="A32" s="59">
+        <v>45786</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="88" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="62">
-        <v>45786</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="81" customFormat="1">
-      <c r="A24" s="77">
-        <v>45786</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="I24" s="79" t="s">
+      <c r="G32" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="79" t="s">
+    </row>
+    <row r="33" s="15" customFormat="1" spans="1:10">
+      <c r="A33" s="59">
+        <v>45787</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="62">
-        <v>45786</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="81" customFormat="1">
-      <c r="A26" s="77">
-        <v>45786</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="45">
-      <c r="A27" s="62">
-        <v>45786</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="70" customFormat="1" ht="60">
-      <c r="A28" s="66">
-        <v>45786</v>
-      </c>
-      <c r="B28" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="76" customFormat="1" ht="60">
-      <c r="A29" s="71">
-        <v>45786</v>
-      </c>
-      <c r="B29" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="81" customFormat="1" ht="60">
-      <c r="A30" s="77">
-        <v>45786</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="76" customFormat="1" ht="90">
-      <c r="A31" s="71">
-        <v>45786</v>
-      </c>
-      <c r="B31" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" s="75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="81" customFormat="1" ht="60">
-      <c r="A32" s="77">
-        <v>45786</v>
-      </c>
-      <c r="B32" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="81" customFormat="1" ht="30">
-      <c r="A33" s="77">
-        <v>45787</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="G33" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="J33" s="79" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15">
       <formula1>"open,in progress,closed,not applicable"</formula1>
@@ -2578,54 +3125,56 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="33.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="78.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
+    <row r="1" ht="20.25" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D2" s="5">
         <v>45760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75">
+    <row r="3" ht="75" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2633,167 +3182,167 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D3" s="8">
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
+    <row r="4" ht="18.75" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="D4" s="11">
         <v>45761</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" ht="18.75" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="D5" s="11">
         <v>45764</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
+    <row r="6" ht="18.75" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D6" s="11">
         <v>45765</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
+    <row r="7" ht="18.75" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="D7" s="5">
         <v>45765</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
+    <row r="8" ht="18.75" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D8" s="5">
         <v>45765</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="37.5">
+    <row r="9" ht="37.5" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D9" s="5">
         <v>45766</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75">
+    <row r="10" ht="18.75" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="D10" s="5">
         <v>45766</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75">
+    <row r="11" ht="18.75" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="D11" s="5">
         <v>45767</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75">
+    <row r="12" ht="18.75" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D12" s="5">
         <v>45785</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75">
+    <row r="13" ht="18.75" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="D13" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75">
+    <row r="14" ht="18.75" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D14" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75">
+    <row r="15" ht="18.75" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -2801,70 +3350,84 @@
         <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D15" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75">
+    <row r="16" ht="18.75" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D16" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75">
+    <row r="17" ht="18.75" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D17" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75">
-      <c r="A18" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="86" t="s">
+    <row r="18" ht="18.75" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="87">
+      <c r="C18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="5">
         <v>45786</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75">
-      <c r="A19" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="86" t="s">
+    <row r="19" ht="18.75" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="87">
+      <c r="C19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="5">
         <v>45786</v>
       </c>
     </row>
+    <row r="20" ht="18.75" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45787</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omars\Documents\GitHub\Group-3-Learning-hub\LH_REVIEWS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6FB01F-8A7F-4B0A-AEBF-268770883167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
@@ -19,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="190">
   <si>
     <t>date</t>
   </si>
@@ -664,18 +668,15 @@
   <si>
     <t>Closed owner review</t>
   </si>
+  <si>
+    <t>v2.9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,150 +734,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,8 +748,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,7 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,198 +801,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1212,251 +902,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1498,9 +949,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="26"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="26" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="26" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1510,10 +960,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="26" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1546,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1562,7 +1012,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1573,7 +1023,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,34 +1053,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="26" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1639,46 +1089,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="5" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1702,65 +1122,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2018,1135 +1421,1133 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A20" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.6857142857143" customWidth="1"/>
-    <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="22.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="11.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="85" customWidth="1"/>
-    <col min="7" max="7" width="76.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="21.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="30.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="76.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="18.75" spans="1:10">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="18">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="60" spans="1:10">
-      <c r="A2" s="21">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="57.6">
+      <c r="A2" s="20">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:10">
-      <c r="A3" s="25">
+      <c r="J2" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.2">
+      <c r="A3" s="24">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:10">
-      <c r="A4" s="21">
+      <c r="I3" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
+      <c r="A4" s="20">
         <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="30" spans="1:11">
-      <c r="A5" s="33">
+      <c r="I4" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8">
+      <c r="A5" s="32">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="84"/>
-    </row>
-    <row r="6" ht="30" spans="1:11">
-      <c r="A6" s="21">
+      <c r="I5" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8">
+      <c r="A6" s="20">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="84"/>
-    </row>
-    <row r="7" ht="30" spans="1:10">
-      <c r="A7" s="33">
+      <c r="I6" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="73"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8">
+      <c r="A7" s="32">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:10">
-      <c r="A8" s="21">
+      <c r="I7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8">
+      <c r="A8" s="20">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="35.25" customHeight="1" spans="1:10">
-      <c r="A9" s="33">
+      <c r="I8" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A9" s="32">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:10">
-      <c r="A10" s="21">
+      <c r="I9" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8">
+      <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="30" spans="1:10">
-      <c r="A11" s="33">
+      <c r="I10" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8">
+      <c r="A11" s="32">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="83" t="s">
+      <c r="I11" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="45" spans="1:10">
-      <c r="A12" s="39">
+    <row r="12" spans="1:11" ht="43.2">
+      <c r="A12" s="38">
         <f t="shared" ref="A12:A14" si="1">DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="1:10">
-      <c r="A13" s="33">
+      <c r="I12" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8">
+      <c r="A13" s="32">
         <f t="shared" si="1"/>
         <v>45764</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="45" spans="1:10">
-      <c r="A14" s="39">
+      <c r="I13" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.2">
+      <c r="A14" s="38">
         <f t="shared" si="1"/>
         <v>45764</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="44">
+      <c r="I14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="43">
         <v>45765</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="85" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="1:10">
-      <c r="A16" s="39">
+      <c r="I15" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8">
+      <c r="A16" s="38">
         <v>45765</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:10">
-      <c r="A17" s="33">
+      <c r="I16" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.8">
+      <c r="A17" s="32">
         <v>45765</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" s="14" customFormat="1" spans="1:10">
-      <c r="A18" s="54">
+      <c r="I17" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="14" customFormat="1">
+      <c r="A18" s="53">
         <v>45765</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="86" t="s">
+      <c r="I18" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J18" s="75" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>45765</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" s="15" customFormat="1" spans="1:10">
-      <c r="A20" s="56">
+    <row r="20" spans="1:10" s="15" customFormat="1">
+      <c r="A20" s="55">
         <v>45785</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="58" t="s">
+      <c r="I20" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="57" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="33">
+      <c r="A21" s="32">
         <v>45786</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" s="15" customFormat="1" ht="75" spans="1:10">
-      <c r="A22" s="59">
+      <c r="I21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="15" customFormat="1" ht="72">
+      <c r="A22" s="58">
         <v>45786</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="77" t="s">
+      <c r="I22" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="60" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="63">
+      <c r="A23" s="62">
         <v>45786</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:10">
-      <c r="A24" s="59">
+      <c r="I23" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="15" customFormat="1">
+      <c r="A24" s="58">
         <v>45786</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="63">
+      <c r="A25" s="62">
         <v>45786</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="I25" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="65" t="s">
+      <c r="J25" s="64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" s="15" customFormat="1" spans="1:10">
-      <c r="A26" s="59">
+    <row r="26" spans="1:10" s="16" customFormat="1">
+      <c r="A26" s="65">
         <v>45786</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="I26" s="61" t="s">
+      <c r="I26" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="86" customFormat="1" ht="28.8">
+      <c r="A27" s="81">
+        <v>45786</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="80" customFormat="1" ht="57.6">
+      <c r="A28" s="76">
+        <v>45786</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="16" customFormat="1" ht="57.6">
+      <c r="A29" s="65">
+        <v>45786</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="15" customFormat="1" ht="57.6">
+      <c r="A30" s="58">
+        <v>45786</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="61" t="s">
+    </row>
+    <row r="31" spans="1:10" s="16" customFormat="1" ht="86.4">
+      <c r="A31" s="65">
+        <v>45786</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="67" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" ht="45" spans="1:10">
-      <c r="A27" s="63">
+    <row r="32" spans="1:10" s="15" customFormat="1" ht="57.6">
+      <c r="A32" s="58">
         <v>45786</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="65" t="s">
+      <c r="B32" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" s="16" customFormat="1" ht="60" spans="1:10">
-      <c r="A28" s="69">
-        <v>45786</v>
-      </c>
-      <c r="B28" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="71" t="s">
+    </row>
+    <row r="33" spans="1:10" s="15" customFormat="1">
+      <c r="A33" s="58">
+        <v>45787</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" s="17" customFormat="1" ht="60" spans="1:10">
-      <c r="A29" s="73">
-        <v>45786</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" s="15" customFormat="1" ht="60" spans="1:10">
-      <c r="A30" s="59">
-        <v>45786</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="77" t="s">
+      <c r="E33" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="61" t="s">
+      <c r="F33" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" s="17" customFormat="1" ht="90" spans="1:10">
-      <c r="A31" s="73">
-        <v>45786</v>
-      </c>
-      <c r="B31" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" s="15" customFormat="1" ht="60" spans="1:10">
-      <c r="A32" s="59">
-        <v>45786</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" s="15" customFormat="1" spans="1:10">
-      <c r="A33" s="59">
-        <v>45787</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="61" t="s">
+      <c r="I33" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="60" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"open,in progress,closed,not applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"open,closed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="33.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="78.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
@@ -3160,7 +2561,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:4">
+    <row r="2" spans="1:4" ht="18.600000000000001">
       <c r="A2" s="3" t="s">
         <v>154</v>
       </c>
@@ -3174,7 +2575,7 @@
         <v>45760</v>
       </c>
     </row>
-    <row r="3" ht="75" spans="1:4">
+    <row r="3" spans="1:4" ht="74.400000000000006">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -3188,7 +2589,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:4">
+    <row r="4" spans="1:4" ht="18.600000000000001">
       <c r="A4" s="9" t="s">
         <v>157</v>
       </c>
@@ -3202,7 +2603,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:4">
+    <row r="5" spans="1:4" ht="18.600000000000001">
       <c r="A5" s="9" t="s">
         <v>159</v>
       </c>
@@ -3216,7 +2617,7 @@
         <v>45764</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:4">
+    <row r="6" spans="1:4" ht="18.600000000000001">
       <c r="A6" s="9" t="s">
         <v>161</v>
       </c>
@@ -3230,7 +2631,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:4">
+    <row r="7" spans="1:4" ht="18.600000000000001">
       <c r="A7" s="3" t="s">
         <v>163</v>
       </c>
@@ -3244,7 +2645,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:4">
+    <row r="8" spans="1:4" ht="18.600000000000001">
       <c r="A8" s="3" t="s">
         <v>165</v>
       </c>
@@ -3258,7 +2659,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="9" ht="37.5" spans="1:4">
+    <row r="9" spans="1:4" ht="37.200000000000003">
       <c r="A9" s="3" t="s">
         <v>167</v>
       </c>
@@ -3272,7 +2673,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="1:4">
+    <row r="10" spans="1:4" ht="18.600000000000001">
       <c r="A10" s="3" t="s">
         <v>169</v>
       </c>
@@ -3286,7 +2687,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="1:4">
+    <row r="11" spans="1:4" ht="18.600000000000001">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
@@ -3300,7 +2701,7 @@
         <v>45767</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="1:4">
+    <row r="12" spans="1:4" ht="18.600000000000001">
       <c r="A12" s="3" t="s">
         <v>173</v>
       </c>
@@ -3314,7 +2715,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="1:4">
+    <row r="13" spans="1:4" ht="18.600000000000001">
       <c r="A13" s="3" t="s">
         <v>175</v>
       </c>
@@ -3328,7 +2729,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="1:4">
+    <row r="14" spans="1:4" ht="18.600000000000001">
       <c r="A14" s="3" t="s">
         <v>177</v>
       </c>
@@ -3342,7 +2743,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="15" ht="18.75" spans="1:4">
+    <row r="15" spans="1:4" ht="18.600000000000001">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -3356,7 +2757,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="16" ht="18.75" spans="1:4">
+    <row r="16" spans="1:4" ht="18.600000000000001">
       <c r="A16" s="3" t="s">
         <v>119</v>
       </c>
@@ -3370,7 +2771,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="17" ht="18.75" spans="1:4">
+    <row r="17" spans="1:4" ht="18.600000000000001">
       <c r="A17" s="3" t="s">
         <v>182</v>
       </c>
@@ -3384,7 +2785,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="18" ht="18.75" spans="1:4">
+    <row r="18" spans="1:4" ht="18.600000000000001">
       <c r="A18" s="3" t="s">
         <v>184</v>
       </c>
@@ -3398,7 +2799,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="19" ht="18.75" spans="1:4">
+    <row r="19" spans="1:4" ht="18.600000000000001">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -3412,7 +2813,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="20" ht="18.75" spans="1:4">
+    <row r="20" spans="1:4" ht="18.600000000000001">
       <c r="A20" s="3" t="s">
         <v>187</v>
       </c>
@@ -3426,8 +2827,22 @@
         <v>45787</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="18.600000000000001">
+      <c r="A21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45787</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omars\Documents\GitHub\Group-3-Learning-hub\LH_REVIEWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\Group-3-Learning-hub-dev\LH_REVIEWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6FB01F-8A7F-4B0A-AEBF-268770883167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
     <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="192">
   <si>
     <t>date</t>
   </si>
@@ -671,11 +670,17 @@
   <si>
     <t>v2.9</t>
   </si>
+  <si>
+    <t>v3.0</t>
+  </si>
+  <si>
+    <t>Closed reviewer verification for Login , Delete user and CATEGORIES features</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -907,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1151,6 +1156,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1426,28 +1437,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A25" zoomScale="45" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="85" customWidth="1"/>
-    <col min="7" max="7" width="76.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="76.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="18">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="57.6">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="75">
       <c r="A2" s="20">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1512,7 +1523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2">
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="24">
         <f>DATE(2025,4,13)</f>
         <v>45760</v>
@@ -1545,7 +1556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="20">
         <f t="shared" ref="A4:A10" si="0">DATE(2025,4,14)</f>
         <v>45761</v>
@@ -1578,7 +1589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8">
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="32">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1612,7 +1623,7 @@
       </c>
       <c r="K5" s="73"/>
     </row>
-    <row r="6" spans="1:11" ht="28.8">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="20">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1646,7 +1657,7 @@
       </c>
       <c r="K6" s="73"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="32">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1679,7 +1690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8">
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="20">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1745,7 +1756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8">
+    <row r="10" spans="1:11" ht="45">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>45761</v>
@@ -1778,7 +1789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8">
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="32">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
@@ -1811,7 +1822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.2">
+    <row r="12" spans="1:11" ht="45">
       <c r="A12" s="38">
         <f t="shared" ref="A12:A14" si="1">DATE(2025,4,17)</f>
         <v>45764</v>
@@ -1844,7 +1855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8">
+    <row r="13" spans="1:11" ht="45">
       <c r="A13" s="32">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -1877,7 +1888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.2">
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="38">
         <f t="shared" si="1"/>
         <v>45764</v>
@@ -1942,7 +1953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8">
+    <row r="16" spans="1:11" ht="30">
       <c r="A16" s="38">
         <v>45765</v>
       </c>
@@ -1974,7 +1985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8">
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="32">
         <v>45765</v>
       </c>
@@ -2134,7 +2145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1" ht="72">
+    <row r="22" spans="1:10" s="15" customFormat="1" ht="75">
       <c r="A22" s="58">
         <v>45786</v>
       </c>
@@ -2294,7 +2305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="86" customFormat="1" ht="28.8">
+    <row r="27" spans="1:10" s="86" customFormat="1" ht="45">
       <c r="A27" s="81">
         <v>45786</v>
       </c>
@@ -2326,7 +2337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="80" customFormat="1" ht="57.6">
+    <row r="28" spans="1:10" s="80" customFormat="1" ht="60">
       <c r="A28" s="76">
         <v>45786</v>
       </c>
@@ -2358,7 +2369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="16" customFormat="1" ht="57.6">
+    <row r="29" spans="1:10" s="16" customFormat="1" ht="60">
       <c r="A29" s="65">
         <v>45786</v>
       </c>
@@ -2390,7 +2401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="15" customFormat="1" ht="57.6">
+    <row r="30" spans="1:10" s="15" customFormat="1" ht="60">
       <c r="A30" s="58">
         <v>45786</v>
       </c>
@@ -2418,11 +2429,11 @@
       <c r="I30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="16" customFormat="1" ht="86.4">
+      <c r="J30" s="87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="16" customFormat="1" ht="90">
       <c r="A31" s="65">
         <v>45786</v>
       </c>
@@ -2450,11 +2461,11 @@
       <c r="I31" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="15" customFormat="1" ht="57.6">
+      <c r="J31" s="88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="15" customFormat="1" ht="60">
       <c r="A32" s="58">
         <v>45786</v>
       </c>
@@ -2482,8 +2493,8 @@
       <c r="I32" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="60" t="s">
-        <v>58</v>
+      <c r="J32" s="87" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="15" customFormat="1">
@@ -2514,16 +2525,16 @@
       <c r="I33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="60" t="s">
-        <v>58</v>
+      <c r="J33" s="87" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="I2:I15">
       <formula1>"open,in progress,closed,not applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="J2:J15">
       <formula1>"open,closed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2532,22 +2543,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
@@ -2561,7 +2572,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.600000000000001">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>154</v>
       </c>
@@ -2575,7 +2586,7 @@
         <v>45760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="74.400000000000006">
+    <row r="3" spans="1:4" ht="75">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2589,7 +2600,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="9" t="s">
         <v>157</v>
       </c>
@@ -2603,7 +2614,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.600000000000001">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="9" t="s">
         <v>159</v>
       </c>
@@ -2617,7 +2628,7 @@
         <v>45764</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="9" t="s">
         <v>161</v>
       </c>
@@ -2631,7 +2642,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001">
+    <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>163</v>
       </c>
@@ -2645,7 +2656,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001">
+    <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>165</v>
       </c>
@@ -2659,7 +2670,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="37.200000000000003">
+    <row r="9" spans="1:4" ht="37.5">
       <c r="A9" s="3" t="s">
         <v>167</v>
       </c>
@@ -2673,7 +2684,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.600000000000001">
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>169</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.600000000000001">
+    <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
@@ -2701,7 +2712,7 @@
         <v>45767</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.600000000000001">
+    <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="3" t="s">
         <v>173</v>
       </c>
@@ -2715,7 +2726,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.600000000000001">
+    <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>175</v>
       </c>
@@ -2729,7 +2740,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.600000000000001">
+    <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>177</v>
       </c>
@@ -2743,7 +2754,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.600000000000001">
+    <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -2757,7 +2768,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.600000000000001">
+    <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>119</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.600000000000001">
+    <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>182</v>
       </c>
@@ -2785,7 +2796,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.600000000000001">
+    <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="3" t="s">
         <v>184</v>
       </c>
@@ -2799,7 +2810,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.600000000000001">
+    <row r="19" spans="1:4" ht="18.75">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -2813,7 +2824,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.600000000000001">
+    <row r="20" spans="1:4" ht="18.75">
       <c r="A20" s="3" t="s">
         <v>187</v>
       </c>
@@ -2827,7 +2838,7 @@
         <v>45787</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.600000000000001">
+    <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="3" t="s">
         <v>189</v>
       </c>
@@ -2838,6 +2849,20 @@
         <v>188</v>
       </c>
       <c r="D21" s="5">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="37.5">
+      <c r="A22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="5">
         <v>45787</v>
       </c>
     </row>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="194">
   <si>
     <t>date</t>
   </si>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <t>Closed reviewer verification for Login , Delete user and CATEGORIES features</t>
+  </si>
+  <si>
+    <t>v3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed SYSTEMCONSTRAINS and NOTIFICATION SRS Features  ,,  no comments </t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="45" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A28" zoomScale="61" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2544,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B27" sqref="A1:XFD1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2866,6 +2872,20 @@
         <v>45787</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="37.5">
+      <c r="A23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45787</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_SRS_REVIEWS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\Group-3-Learning-hub-dev\LH_REVIEWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\Group-3-Learning-hub-dev\Group-3-Learning-hub-dev\LH_REVIEWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="191">
   <si>
     <t>date</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>Recommendation: The message should be shown in a bigger area like next to the password field or in a popup</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>LH-REVIEW-SRS-011</t>
@@ -432,18 +429,6 @@
     <t>Mahmoud</t>
   </si>
   <si>
-    <t>LH-REVIEW-SRS-024</t>
-  </si>
-  <si>
-    <t>SRS-ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naming like LH-SRS-DELETEPOST what is deletpost </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use namig by the name of the feature ADMIN Constrains </t>
-  </si>
-  <si>
     <t>LH-REVIEW-SRS-025</t>
   </si>
   <si>
@@ -638,9 +623,6 @@
     <t>Reviewed publish Audio</t>
   </si>
   <si>
-    <t xml:space="preserve">Reviewed publish Video &amp; Admin Home </t>
-  </si>
-  <si>
     <t>Ahmed Abuzaid</t>
   </si>
   <si>
@@ -680,7 +662,16 @@
     <t>v3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Reviewed SYSTEMCONSTRAINS and NOTIFICATION SRS Features  ,,  no comments </t>
+    <t>v3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed SYSTEMCONSTRAINS and NOTIFICATION SRS Features ,No comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed USERHOME  and ADMINHOME SRS Features, NO comments </t>
+  </si>
+  <si>
+    <t>Reviewed publish Video</t>
   </si>
 </sst>
 </file>
@@ -918,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1167,6 +1158,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1444,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="61" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A23" zoomScale="50" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1825,7 +1819,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45">
@@ -1834,10 +1828,10 @@
         <v>45764</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>55</v>
@@ -1846,10 +1840,10 @@
         <v>30</v>
       </c>
       <c r="F12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>62</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>16</v>
@@ -1867,10 +1861,10 @@
         <v>45764</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>55</v>
@@ -1879,10 +1873,10 @@
         <v>30</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="27" t="s">
         <v>16</v>
@@ -1900,10 +1894,10 @@
         <v>45764</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>55</v>
@@ -1912,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="F14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>68</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>16</v>
@@ -1932,22 +1926,22 @@
         <v>45765</v>
       </c>
       <c r="B15" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="D15" s="45" t="s">
         <v>71</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>72</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="47" t="s">
         <v>73</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>74</v>
       </c>
       <c r="H15" s="45" t="s">
         <v>16</v>
@@ -1964,22 +1958,22 @@
         <v>45765</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>72</v>
       </c>
       <c r="E16" s="49" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>16</v>
@@ -1996,22 +1990,22 @@
         <v>45765</v>
       </c>
       <c r="B17" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>79</v>
-      </c>
       <c r="D17" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="52" t="s">
         <v>80</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="H17" s="45" t="s">
         <v>16</v>
@@ -2028,31 +2022,31 @@
         <v>45765</v>
       </c>
       <c r="B18" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="D18" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="49" t="s">
+      <c r="F18" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="G18" s="54" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="75" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2060,31 +2054,31 @@
         <v>45765</v>
       </c>
       <c r="B19" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="D19" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="36" t="s">
+      <c r="G19" s="36" t="s">
         <v>89</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="45" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="15" customFormat="1">
@@ -2092,25 +2086,25 @@
         <v>45785</v>
       </c>
       <c r="B20" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="56" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>92</v>
       </c>
       <c r="D20" s="57" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="G20" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="H20" s="57" t="s">
         <v>95</v>
-      </c>
-      <c r="H20" s="57" t="s">
-        <v>96</v>
       </c>
       <c r="I20" s="57" t="s">
         <v>18</v>
@@ -2124,22 +2118,22 @@
         <v>45786</v>
       </c>
       <c r="B21" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>98</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="G21" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>95</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>16</v>
@@ -2156,22 +2150,22 @@
         <v>45786</v>
       </c>
       <c r="B22" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>100</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="59" t="s">
         <v>101</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>102</v>
       </c>
       <c r="H22" s="60" t="s">
         <v>16</v>
@@ -2188,22 +2182,22 @@
         <v>45786</v>
       </c>
       <c r="B23" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="64" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>104</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="64" t="s">
         <v>105</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>106</v>
       </c>
       <c r="H23" s="64" t="s">
         <v>16</v>
@@ -2220,318 +2214,286 @@
         <v>45786</v>
       </c>
       <c r="B24" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="D24" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="60" t="s">
+      <c r="G24" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="H24" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="I24" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="16" customFormat="1">
+      <c r="A25" s="65">
+        <v>45786</v>
+      </c>
+      <c r="B25" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="62">
+      <c r="C25" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="86" customFormat="1" ht="45">
+      <c r="A26" s="81">
         <v>45786</v>
       </c>
-      <c r="B25" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="64" t="s">
+      <c r="B26" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="64" t="s">
+      <c r="E26" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="16" customFormat="1">
-      <c r="A26" s="65">
+      <c r="F26" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="80" customFormat="1" ht="60">
+      <c r="A27" s="76">
         <v>45786</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="67" t="s">
+      <c r="B27" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="16" customFormat="1" ht="60">
+      <c r="A28" s="65">
+        <v>45786</v>
+      </c>
+      <c r="B28" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="86" customFormat="1" ht="45">
-      <c r="A27" s="81">
+      <c r="C28" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="15" customFormat="1" ht="60">
+      <c r="A29" s="58">
         <v>45786</v>
       </c>
-      <c r="B27" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="80" customFormat="1" ht="60">
-      <c r="A28" s="76">
+      <c r="B29" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="16" customFormat="1" ht="90">
+      <c r="A30" s="65">
         <v>45786</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="78" t="s">
+      <c r="B30" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="78" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="16" customFormat="1" ht="60">
-      <c r="A29" s="65">
+      <c r="E30" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="60">
+      <c r="A31" s="58">
         <v>45786</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="67" t="s">
+      <c r="B31" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="15" customFormat="1" ht="60">
-      <c r="A30" s="58">
-        <v>45786</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="87" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="16" customFormat="1" ht="90">
-      <c r="A31" s="65">
-        <v>45786</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="67" t="s">
+      <c r="F31" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="68" t="s">
+      <c r="G31" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="67" t="s">
+      <c r="H31" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="15" customFormat="1">
+      <c r="A32" s="58">
+        <v>45787</v>
+      </c>
+      <c r="B32" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="88" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="15" customFormat="1" ht="60">
-      <c r="A32" s="58">
-        <v>45786</v>
-      </c>
-      <c r="B32" s="59" t="s">
+      <c r="C32" s="59" t="s">
         <v>143</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>144</v>
       </c>
       <c r="D32" s="60" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H32" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="60" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="87" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="15" customFormat="1">
-      <c r="A33" s="58">
-        <v>45787</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="87" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2550,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2566,27 +2528,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" s="5">
         <v>45760</v>
@@ -2600,7 +2562,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D3" s="8">
         <v>45761</v>
@@ -2608,13 +2570,13 @@
     </row>
     <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D4" s="11">
         <v>45761</v>
@@ -2622,13 +2584,13 @@
     </row>
     <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D5" s="11">
         <v>45764</v>
@@ -2636,13 +2598,13 @@
     </row>
     <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D6" s="11">
         <v>45765</v>
@@ -2650,13 +2612,13 @@
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D7" s="5">
         <v>45765</v>
@@ -2664,13 +2626,13 @@
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D8" s="5">
         <v>45765</v>
@@ -2678,13 +2640,13 @@
     </row>
     <row r="9" spans="1:4" ht="37.5">
       <c r="A9" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D9" s="5">
         <v>45766</v>
@@ -2692,13 +2654,13 @@
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D10" s="5">
         <v>45766</v>
@@ -2706,13 +2668,13 @@
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D11" s="5">
         <v>45767</v>
@@ -2720,13 +2682,13 @@
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D12" s="5">
         <v>45785</v>
@@ -2734,13 +2696,13 @@
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D13" s="5">
         <v>45786</v>
@@ -2748,13 +2710,13 @@
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D14" s="5">
         <v>45786</v>
@@ -2762,13 +2724,13 @@
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D15" s="5">
         <v>45786</v>
@@ -2776,13 +2738,13 @@
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D16" s="5">
         <v>45786</v>
@@ -2790,13 +2752,13 @@
     </row>
     <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D17" s="5">
         <v>45786</v>
@@ -2804,13 +2766,13 @@
     </row>
     <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D18" s="5">
         <v>45786</v>
@@ -2818,13 +2780,13 @@
     </row>
     <row r="19" spans="1:4" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D19" s="5">
         <v>45786</v>
@@ -2832,13 +2794,13 @@
     </row>
     <row r="20" spans="1:4" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D20" s="5">
         <v>45787</v>
@@ -2846,13 +2808,13 @@
     </row>
     <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D21" s="5">
         <v>45787</v>
@@ -2860,13 +2822,13 @@
     </row>
     <row r="22" spans="1:4" ht="37.5">
       <c r="A22" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D22" s="5">
         <v>45787</v>
@@ -2874,15 +2836,29 @@
     </row>
     <row r="23" spans="1:4" ht="37.5">
       <c r="A23" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D23" s="5">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="37.5">
+      <c r="A24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="5">
         <v>45787</v>
       </c>
     </row>
